--- a/lesson18/year2021.xlsx
+++ b/lesson18/year2021.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H733"/>
+  <dimension ref="A1:H731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11426,7 +11426,7 @@
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>86336</v>
+        <v>164337</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -11435,28 +11435,28 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>台灣</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
-        <v>44562</v>
+        <v>44197</v>
       </c>
       <c r="E367" t="n">
-        <v>1732752</v>
+        <v>802</v>
       </c>
       <c r="F367" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="G367" t="n">
-        <v>126050796</v>
+        <v>23855008</v>
       </c>
       <c r="H367" t="n">
-        <v>99999</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>164337</v>
+        <v>164338</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -11469,13 +11469,13 @@
         </is>
       </c>
       <c r="D368" s="2" t="n">
-        <v>44197</v>
+        <v>44198</v>
       </c>
       <c r="E368" t="n">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="F368" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G368" t="n">
         <v>23855008</v>
@@ -11486,7 +11486,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>164338</v>
+        <v>164339</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -11499,13 +11499,13 @@
         </is>
       </c>
       <c r="D369" s="2" t="n">
-        <v>44198</v>
+        <v>44199</v>
       </c>
       <c r="E369" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F369" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G369" t="n">
         <v>23855008</v>
@@ -11516,7 +11516,7 @@
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>164339</v>
+        <v>164340</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -11529,24 +11529,24 @@
         </is>
       </c>
       <c r="D370" s="2" t="n">
-        <v>44199</v>
+        <v>44200</v>
       </c>
       <c r="E370" t="n">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F370" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G370" t="n">
         <v>23855008</v>
       </c>
       <c r="H370" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>164340</v>
+        <v>164341</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -11559,13 +11559,13 @@
         </is>
       </c>
       <c r="D371" s="2" t="n">
-        <v>44200</v>
+        <v>44201</v>
       </c>
       <c r="E371" t="n">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G371" t="n">
         <v>23855008</v>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>164341</v>
+        <v>164342</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -11589,10 +11589,10 @@
         </is>
       </c>
       <c r="D372" s="2" t="n">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="E372" t="n">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F372" t="n">
         <v>2</v>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>164342</v>
+        <v>164343</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -11619,24 +11619,24 @@
         </is>
       </c>
       <c r="D373" s="2" t="n">
-        <v>44202</v>
+        <v>44203</v>
       </c>
       <c r="E373" t="n">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="F373" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G373" t="n">
         <v>23855008</v>
       </c>
       <c r="H373" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>164343</v>
+        <v>164344</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -11649,10 +11649,10 @@
         </is>
       </c>
       <c r="D374" s="2" t="n">
-        <v>44203</v>
+        <v>44204</v>
       </c>
       <c r="E374" t="n">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F374" t="n">
         <v>3</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>164344</v>
+        <v>164345</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -11679,10 +11679,10 @@
         </is>
       </c>
       <c r="D375" s="2" t="n">
-        <v>44204</v>
+        <v>44205</v>
       </c>
       <c r="E375" t="n">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F375" t="n">
         <v>3</v>
@@ -11691,12 +11691,12 @@
         <v>23855008</v>
       </c>
       <c r="H375" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>164345</v>
+        <v>164346</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -11709,13 +11709,13 @@
         </is>
       </c>
       <c r="D376" s="2" t="n">
-        <v>44205</v>
+        <v>44206</v>
       </c>
       <c r="E376" t="n">
         <v>828</v>
       </c>
       <c r="F376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>23855008</v>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>164346</v>
+        <v>164347</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -11739,13 +11739,13 @@
         </is>
       </c>
       <c r="D377" s="2" t="n">
-        <v>44206</v>
+        <v>44207</v>
       </c>
       <c r="E377" t="n">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G377" t="n">
         <v>23855008</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>164347</v>
+        <v>164348</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -11769,13 +11769,13 @@
         </is>
       </c>
       <c r="D378" s="2" t="n">
-        <v>44207</v>
+        <v>44208</v>
       </c>
       <c r="E378" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="F378" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G378" t="n">
         <v>23855008</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>164348</v>
+        <v>164349</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -11799,10 +11799,10 @@
         </is>
       </c>
       <c r="D379" s="2" t="n">
-        <v>44208</v>
+        <v>44209</v>
       </c>
       <c r="E379" t="n">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="F379" t="n">
         <v>4</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>164349</v>
+        <v>164350</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -11829,13 +11829,13 @@
         </is>
       </c>
       <c r="D380" s="2" t="n">
-        <v>44209</v>
+        <v>44210</v>
       </c>
       <c r="E380" t="n">
         <v>842</v>
       </c>
       <c r="F380" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G380" t="n">
         <v>23855008</v>
@@ -11846,7 +11846,7 @@
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>164350</v>
+        <v>164351</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -11859,24 +11859,24 @@
         </is>
       </c>
       <c r="D381" s="2" t="n">
-        <v>44210</v>
+        <v>44211</v>
       </c>
       <c r="E381" t="n">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G381" t="n">
         <v>23855008</v>
       </c>
       <c r="H381" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>164351</v>
+        <v>164352</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -11889,24 +11889,24 @@
         </is>
       </c>
       <c r="D382" s="2" t="n">
-        <v>44211</v>
+        <v>44212</v>
       </c>
       <c r="E382" t="n">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G382" t="n">
         <v>23855008</v>
       </c>
       <c r="H382" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>164352</v>
+        <v>164353</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -11919,13 +11919,13 @@
         </is>
       </c>
       <c r="D383" s="2" t="n">
-        <v>44212</v>
+        <v>44213</v>
       </c>
       <c r="E383" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F383" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G383" t="n">
         <v>23855008</v>
@@ -11936,7 +11936,7 @@
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>164353</v>
+        <v>164354</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -11949,24 +11949,24 @@
         </is>
       </c>
       <c r="D384" s="2" t="n">
-        <v>44213</v>
+        <v>44214</v>
       </c>
       <c r="E384" t="n">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="F384" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G384" t="n">
         <v>23855008</v>
       </c>
       <c r="H384" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>164354</v>
+        <v>164355</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -11979,24 +11979,24 @@
         </is>
       </c>
       <c r="D385" s="2" t="n">
-        <v>44214</v>
+        <v>44215</v>
       </c>
       <c r="E385" t="n">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="F385" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G385" t="n">
         <v>23855008</v>
       </c>
       <c r="H385" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>164355</v>
+        <v>164356</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -12009,13 +12009,13 @@
         </is>
       </c>
       <c r="D386" s="2" t="n">
-        <v>44215</v>
+        <v>44216</v>
       </c>
       <c r="E386" t="n">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F386" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G386" t="n">
         <v>23855008</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>164356</v>
+        <v>164357</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -12039,13 +12039,13 @@
         </is>
       </c>
       <c r="D387" s="2" t="n">
-        <v>44216</v>
+        <v>44217</v>
       </c>
       <c r="E387" t="n">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="F387" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G387" t="n">
         <v>23855008</v>
@@ -12056,7 +12056,7 @@
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>164357</v>
+        <v>164358</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -12069,13 +12069,13 @@
         </is>
       </c>
       <c r="D388" s="2" t="n">
-        <v>44217</v>
+        <v>44218</v>
       </c>
       <c r="E388" t="n">
         <v>881</v>
       </c>
       <c r="F388" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G388" t="n">
         <v>23855008</v>
@@ -12086,7 +12086,7 @@
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>164358</v>
+        <v>164359</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -12099,13 +12099,13 @@
         </is>
       </c>
       <c r="D389" s="2" t="n">
-        <v>44218</v>
+        <v>44219</v>
       </c>
       <c r="E389" t="n">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="F389" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G389" t="n">
         <v>23855008</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>164359</v>
+        <v>164360</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -12129,13 +12129,13 @@
         </is>
       </c>
       <c r="D390" s="2" t="n">
-        <v>44219</v>
+        <v>44220</v>
       </c>
       <c r="E390" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="F390" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G390" t="n">
         <v>23855008</v>
@@ -12146,7 +12146,7 @@
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>164360</v>
+        <v>164361</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -12159,13 +12159,13 @@
         </is>
       </c>
       <c r="D391" s="2" t="n">
-        <v>44220</v>
+        <v>44221</v>
       </c>
       <c r="E391" t="n">
         <v>889</v>
       </c>
       <c r="F391" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G391" t="n">
         <v>23855008</v>
@@ -12176,7 +12176,7 @@
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>164361</v>
+        <v>164362</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -12189,24 +12189,24 @@
         </is>
       </c>
       <c r="D392" s="2" t="n">
-        <v>44221</v>
+        <v>44222</v>
       </c>
       <c r="E392" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G392" t="n">
         <v>23855008</v>
       </c>
       <c r="H392" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>164362</v>
+        <v>164363</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -12219,24 +12219,24 @@
         </is>
       </c>
       <c r="D393" s="2" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="E393" t="n">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="F393" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G393" t="n">
         <v>23855008</v>
       </c>
       <c r="H393" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>164363</v>
+        <v>164364</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -12249,13 +12249,13 @@
         </is>
       </c>
       <c r="D394" s="2" t="n">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="E394" t="n">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G394" t="n">
         <v>23855008</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>164364</v>
+        <v>164365</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -12279,24 +12279,24 @@
         </is>
       </c>
       <c r="D395" s="2" t="n">
-        <v>44224</v>
+        <v>44225</v>
       </c>
       <c r="E395" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F395" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G395" t="n">
         <v>23855008</v>
       </c>
       <c r="H395" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>164365</v>
+        <v>164366</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -12309,13 +12309,13 @@
         </is>
       </c>
       <c r="D396" s="2" t="n">
-        <v>44225</v>
+        <v>44226</v>
       </c>
       <c r="E396" t="n">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="F396" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G396" t="n">
         <v>23855008</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>164366</v>
+        <v>164367</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -12339,13 +12339,13 @@
         </is>
       </c>
       <c r="D397" s="2" t="n">
-        <v>44226</v>
+        <v>44227</v>
       </c>
       <c r="E397" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F397" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G397" t="n">
         <v>23855008</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>164367</v>
+        <v>164368</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -12369,13 +12369,13 @@
         </is>
       </c>
       <c r="D398" s="2" t="n">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="E398" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G398" t="n">
         <v>23855008</v>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>164368</v>
+        <v>164369</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -12399,13 +12399,13 @@
         </is>
       </c>
       <c r="D399" s="2" t="n">
-        <v>44228</v>
+        <v>44229</v>
       </c>
       <c r="E399" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="F399" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G399" t="n">
         <v>23855008</v>
@@ -12416,7 +12416,7 @@
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>164369</v>
+        <v>164370</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -12429,13 +12429,13 @@
         </is>
       </c>
       <c r="D400" s="2" t="n">
-        <v>44229</v>
+        <v>44230</v>
       </c>
       <c r="E400" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G400" t="n">
         <v>23855008</v>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>164370</v>
+        <v>164371</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -12459,10 +12459,10 @@
         </is>
       </c>
       <c r="D401" s="2" t="n">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="E401" t="n">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F401" t="n">
         <v>2</v>
@@ -12476,7 +12476,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>164371</v>
+        <v>164372</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -12489,13 +12489,13 @@
         </is>
       </c>
       <c r="D402" s="2" t="n">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="E402" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="F402" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G402" t="n">
         <v>23855008</v>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>164372</v>
+        <v>164373</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -12519,13 +12519,13 @@
         </is>
       </c>
       <c r="D403" s="2" t="n">
-        <v>44232</v>
+        <v>44233</v>
       </c>
       <c r="E403" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F403" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G403" t="n">
         <v>23855008</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>164373</v>
+        <v>164374</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -12549,13 +12549,13 @@
         </is>
       </c>
       <c r="D404" s="2" t="n">
-        <v>44233</v>
+        <v>44234</v>
       </c>
       <c r="E404" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F404" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G404" t="n">
         <v>23855008</v>
@@ -12566,7 +12566,7 @@
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>164374</v>
+        <v>164375</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -12579,13 +12579,13 @@
         </is>
       </c>
       <c r="D405" s="2" t="n">
-        <v>44234</v>
+        <v>44235</v>
       </c>
       <c r="E405" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F405" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G405" t="n">
         <v>23855008</v>
@@ -12596,7 +12596,7 @@
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>164375</v>
+        <v>164376</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -12609,13 +12609,13 @@
         </is>
       </c>
       <c r="D406" s="2" t="n">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="E406" t="n">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F406" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G406" t="n">
         <v>23855008</v>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>164376</v>
+        <v>164377</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -12639,13 +12639,13 @@
         </is>
       </c>
       <c r="D407" s="2" t="n">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="E407" t="n">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="F407" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G407" t="n">
         <v>23855008</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>164377</v>
+        <v>164378</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -12669,24 +12669,24 @@
         </is>
       </c>
       <c r="D408" s="2" t="n">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="E408" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G408" t="n">
         <v>23855008</v>
       </c>
       <c r="H408" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>164378</v>
+        <v>164379</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -12699,10 +12699,10 @@
         </is>
       </c>
       <c r="D409" s="2" t="n">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="E409" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F409" t="n">
         <v>1</v>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>164379</v>
+        <v>164380</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -12729,13 +12729,13 @@
         </is>
       </c>
       <c r="D410" s="2" t="n">
-        <v>44239</v>
+        <v>44240</v>
       </c>
       <c r="E410" t="n">
         <v>937</v>
       </c>
       <c r="F410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G410" t="n">
         <v>23855008</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>164380</v>
+        <v>164381</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -12759,7 +12759,7 @@
         </is>
       </c>
       <c r="D411" s="2" t="n">
-        <v>44240</v>
+        <v>44241</v>
       </c>
       <c r="E411" t="n">
         <v>937</v>
@@ -12776,7 +12776,7 @@
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>164381</v>
+        <v>164382</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="D412" s="2" t="n">
-        <v>44241</v>
+        <v>44242</v>
       </c>
       <c r="E412" t="n">
         <v>937</v>
@@ -12806,7 +12806,7 @@
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>164382</v>
+        <v>164383</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="D413" s="2" t="n">
-        <v>44242</v>
+        <v>44243</v>
       </c>
       <c r="E413" t="n">
         <v>937</v>
@@ -12836,7 +12836,7 @@
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>164383</v>
+        <v>164384</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -12849,24 +12849,24 @@
         </is>
       </c>
       <c r="D414" s="2" t="n">
-        <v>44243</v>
+        <v>44244</v>
       </c>
       <c r="E414" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G414" t="n">
         <v>23855008</v>
       </c>
       <c r="H414" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>164384</v>
+        <v>164385</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -12879,24 +12879,24 @@
         </is>
       </c>
       <c r="D415" s="2" t="n">
-        <v>44244</v>
+        <v>44245</v>
       </c>
       <c r="E415" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G415" t="n">
         <v>23855008</v>
       </c>
       <c r="H415" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>164385</v>
+        <v>164386</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -12909,13 +12909,13 @@
         </is>
       </c>
       <c r="D416" s="2" t="n">
-        <v>44245</v>
+        <v>44246</v>
       </c>
       <c r="E416" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G416" t="n">
         <v>23855008</v>
@@ -12926,7 +12926,7 @@
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>164386</v>
+        <v>164387</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -12939,10 +12939,10 @@
         </is>
       </c>
       <c r="D417" s="2" t="n">
-        <v>44246</v>
+        <v>44247</v>
       </c>
       <c r="E417" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F417" t="n">
         <v>1</v>
@@ -12956,7 +12956,7 @@
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>164387</v>
+        <v>164388</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -12969,13 +12969,13 @@
         </is>
       </c>
       <c r="D418" s="2" t="n">
-        <v>44247</v>
+        <v>44248</v>
       </c>
       <c r="E418" t="n">
         <v>942</v>
       </c>
       <c r="F418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G418" t="n">
         <v>23855008</v>
@@ -12986,7 +12986,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>164388</v>
+        <v>164389</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -12999,7 +12999,7 @@
         </is>
       </c>
       <c r="D419" s="2" t="n">
-        <v>44248</v>
+        <v>44249</v>
       </c>
       <c r="E419" t="n">
         <v>942</v>
@@ -13016,7 +13016,7 @@
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>164389</v>
+        <v>164390</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -13029,7 +13029,7 @@
         </is>
       </c>
       <c r="D420" s="2" t="n">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="E420" t="n">
         <v>942</v>
@@ -13046,7 +13046,7 @@
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>164390</v>
+        <v>164391</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -13059,24 +13059,24 @@
         </is>
       </c>
       <c r="D421" s="2" t="n">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="E421" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G421" t="n">
         <v>23855008</v>
       </c>
       <c r="H421" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>164391</v>
+        <v>164392</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -13089,13 +13089,13 @@
         </is>
       </c>
       <c r="D422" s="2" t="n">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="E422" t="n">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="F422" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G422" t="n">
         <v>23855008</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>164392</v>
+        <v>164393</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -13119,13 +13119,13 @@
         </is>
       </c>
       <c r="D423" s="2" t="n">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="E423" t="n">
         <v>951</v>
       </c>
       <c r="F423" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G423" t="n">
         <v>23855008</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>164393</v>
+        <v>164394</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -13149,24 +13149,24 @@
         </is>
       </c>
       <c r="D424" s="2" t="n">
-        <v>44253</v>
+        <v>44254</v>
       </c>
       <c r="E424" t="n">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G424" t="n">
         <v>23855008</v>
       </c>
       <c r="H424" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>164394</v>
+        <v>164395</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -13179,13 +13179,13 @@
         </is>
       </c>
       <c r="D425" s="2" t="n">
-        <v>44254</v>
+        <v>44255</v>
       </c>
       <c r="E425" t="n">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F425" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G425" t="n">
         <v>23855008</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>164395</v>
+        <v>164396</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -13209,13 +13209,13 @@
         </is>
       </c>
       <c r="D426" s="2" t="n">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="E426" t="n">
         <v>955</v>
       </c>
       <c r="F426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G426" t="n">
         <v>23855008</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>164396</v>
+        <v>164397</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         </is>
       </c>
       <c r="D427" s="2" t="n">
-        <v>44256</v>
+        <v>44257</v>
       </c>
       <c r="E427" t="n">
         <v>955</v>
@@ -13256,7 +13256,7 @@
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>164397</v>
+        <v>164398</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -13269,24 +13269,24 @@
         </is>
       </c>
       <c r="D428" s="2" t="n">
-        <v>44257</v>
+        <v>44258</v>
       </c>
       <c r="E428" t="n">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G428" t="n">
         <v>23855008</v>
       </c>
       <c r="H428" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>164398</v>
+        <v>164399</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -13299,13 +13299,13 @@
         </is>
       </c>
       <c r="D429" s="2" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="E429" t="n">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="F429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G429" t="n">
         <v>23855008</v>
@@ -13316,7 +13316,7 @@
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>164399</v>
+        <v>164400</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -13329,13 +13329,13 @@
         </is>
       </c>
       <c r="D430" s="2" t="n">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="E430" t="n">
         <v>960</v>
       </c>
       <c r="F430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G430" t="n">
         <v>23855008</v>
@@ -13346,7 +13346,7 @@
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>164400</v>
+        <v>164401</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -13359,24 +13359,24 @@
         </is>
       </c>
       <c r="D431" s="2" t="n">
-        <v>44260</v>
+        <v>44261</v>
       </c>
       <c r="E431" t="n">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="F431" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G431" t="n">
         <v>23855008</v>
       </c>
       <c r="H431" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>164401</v>
+        <v>164402</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -13389,13 +13389,13 @@
         </is>
       </c>
       <c r="D432" s="2" t="n">
-        <v>44261</v>
+        <v>44262</v>
       </c>
       <c r="E432" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F432" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G432" t="n">
         <v>23855008</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>164402</v>
+        <v>164403</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -13419,24 +13419,24 @@
         </is>
       </c>
       <c r="D433" s="2" t="n">
-        <v>44262</v>
+        <v>44263</v>
       </c>
       <c r="E433" t="n">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="F433" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G433" t="n">
         <v>23855008</v>
       </c>
       <c r="H433" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>164403</v>
+        <v>164404</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -13449,13 +13449,13 @@
         </is>
       </c>
       <c r="D434" s="2" t="n">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="E434" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F434" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G434" t="n">
         <v>23855008</v>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>164404</v>
+        <v>164405</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -13479,10 +13479,10 @@
         </is>
       </c>
       <c r="D435" s="2" t="n">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="E435" t="n">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F435" t="n">
         <v>1</v>
@@ -13496,7 +13496,7 @@
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>164405</v>
+        <v>164406</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -13509,13 +13509,13 @@
         </is>
       </c>
       <c r="D436" s="2" t="n">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="E436" t="n">
         <v>978</v>
       </c>
       <c r="F436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G436" t="n">
         <v>23855008</v>
@@ -13526,7 +13526,7 @@
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>164406</v>
+        <v>164407</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -13539,13 +13539,13 @@
         </is>
       </c>
       <c r="D437" s="2" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="E437" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F437" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G437" t="n">
         <v>23855008</v>
@@ -13556,7 +13556,7 @@
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>164407</v>
+        <v>164408</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -13569,13 +13569,13 @@
         </is>
       </c>
       <c r="D438" s="2" t="n">
-        <v>44267</v>
+        <v>44268</v>
       </c>
       <c r="E438" t="n">
         <v>984</v>
       </c>
       <c r="F438" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G438" t="n">
         <v>23855008</v>
@@ -13586,7 +13586,7 @@
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>164408</v>
+        <v>164409</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -13599,24 +13599,24 @@
         </is>
       </c>
       <c r="D439" s="2" t="n">
-        <v>44268</v>
+        <v>44269</v>
       </c>
       <c r="E439" t="n">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="F439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G439" t="n">
         <v>23855008</v>
       </c>
       <c r="H439" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>164409</v>
+        <v>164410</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -13629,13 +13629,13 @@
         </is>
       </c>
       <c r="D440" s="2" t="n">
-        <v>44269</v>
+        <v>44270</v>
       </c>
       <c r="E440" t="n">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="F440" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G440" t="n">
         <v>23855008</v>
@@ -13646,7 +13646,7 @@
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>164410</v>
+        <v>164411</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -13659,13 +13659,13 @@
         </is>
       </c>
       <c r="D441" s="2" t="n">
-        <v>44270</v>
+        <v>44271</v>
       </c>
       <c r="E441" t="n">
         <v>990</v>
       </c>
       <c r="F441" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G441" t="n">
         <v>23855008</v>
@@ -13676,7 +13676,7 @@
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>164411</v>
+        <v>164412</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -13689,7 +13689,7 @@
         </is>
       </c>
       <c r="D442" s="2" t="n">
-        <v>44271</v>
+        <v>44272</v>
       </c>
       <c r="E442" t="n">
         <v>990</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>164412</v>
+        <v>164413</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -13719,13 +13719,13 @@
         </is>
       </c>
       <c r="D443" s="2" t="n">
-        <v>44272</v>
+        <v>44273</v>
       </c>
       <c r="E443" t="n">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="F443" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G443" t="n">
         <v>23855008</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>164413</v>
+        <v>164414</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -13749,24 +13749,24 @@
         </is>
       </c>
       <c r="D444" s="2" t="n">
-        <v>44273</v>
+        <v>44274</v>
       </c>
       <c r="E444" t="n">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="F444" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G444" t="n">
         <v>23855008</v>
       </c>
       <c r="H444" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>164414</v>
+        <v>164415</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -13779,13 +13779,13 @@
         </is>
       </c>
       <c r="D445" s="2" t="n">
-        <v>44274</v>
+        <v>44275</v>
       </c>
       <c r="E445" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F445" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G445" t="n">
         <v>23855008</v>
@@ -13796,7 +13796,7 @@
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>164415</v>
+        <v>164416</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="D446" s="2" t="n">
-        <v>44275</v>
+        <v>44276</v>
       </c>
       <c r="E446" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F446" t="n">
         <v>1</v>
@@ -13826,7 +13826,7 @@
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>164416</v>
+        <v>164417</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -13839,13 +13839,13 @@
         </is>
       </c>
       <c r="D447" s="2" t="n">
-        <v>44276</v>
+        <v>44277</v>
       </c>
       <c r="E447" t="n">
         <v>1006</v>
       </c>
       <c r="F447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G447" t="n">
         <v>23855008</v>
@@ -13856,7 +13856,7 @@
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>164417</v>
+        <v>164418</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -13869,24 +13869,24 @@
         </is>
       </c>
       <c r="D448" s="2" t="n">
-        <v>44277</v>
+        <v>44278</v>
       </c>
       <c r="E448" t="n">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G448" t="n">
         <v>23855008</v>
       </c>
       <c r="H448" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>164418</v>
+        <v>164419</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -13899,13 +13899,13 @@
         </is>
       </c>
       <c r="D449" s="2" t="n">
-        <v>44278</v>
+        <v>44279</v>
       </c>
       <c r="E449" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G449" t="n">
         <v>23855008</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>164419</v>
+        <v>164420</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -13929,13 +13929,13 @@
         </is>
       </c>
       <c r="D450" s="2" t="n">
-        <v>44279</v>
+        <v>44280</v>
       </c>
       <c r="E450" t="n">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="F450" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G450" t="n">
         <v>23855008</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>164420</v>
+        <v>164421</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -13959,13 +13959,13 @@
         </is>
       </c>
       <c r="D451" s="2" t="n">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="E451" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G451" t="n">
         <v>23855008</v>
@@ -13976,7 +13976,7 @@
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>164421</v>
+        <v>164422</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -13989,13 +13989,13 @@
         </is>
       </c>
       <c r="D452" s="2" t="n">
-        <v>44281</v>
+        <v>44282</v>
       </c>
       <c r="E452" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="F452" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G452" t="n">
         <v>23855008</v>
@@ -14006,7 +14006,7 @@
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>164422</v>
+        <v>164423</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -14019,13 +14019,13 @@
         </is>
       </c>
       <c r="D453" s="2" t="n">
-        <v>44282</v>
+        <v>44283</v>
       </c>
       <c r="E453" t="n">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="F453" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G453" t="n">
         <v>23855008</v>
@@ -14036,7 +14036,7 @@
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>164423</v>
+        <v>164424</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -14049,24 +14049,24 @@
         </is>
       </c>
       <c r="D454" s="2" t="n">
-        <v>44283</v>
+        <v>44284</v>
       </c>
       <c r="E454" t="n">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G454" t="n">
         <v>23855008</v>
       </c>
       <c r="H454" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>164424</v>
+        <v>164425</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -14079,10 +14079,10 @@
         </is>
       </c>
       <c r="D455" s="2" t="n">
-        <v>44284</v>
+        <v>44285</v>
       </c>
       <c r="E455" t="n">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F455" t="n">
         <v>1</v>
@@ -14091,12 +14091,12 @@
         <v>23855008</v>
       </c>
       <c r="H455" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>164425</v>
+        <v>164426</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -14109,24 +14109,24 @@
         </is>
       </c>
       <c r="D456" s="2" t="n">
-        <v>44285</v>
+        <v>44286</v>
       </c>
       <c r="E456" t="n">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="F456" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G456" t="n">
         <v>23855008</v>
       </c>
       <c r="H456" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>164426</v>
+        <v>164427</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -14139,10 +14139,10 @@
         </is>
       </c>
       <c r="D457" s="2" t="n">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="E457" t="n">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="F457" t="n">
         <v>6</v>
@@ -14156,7 +14156,7 @@
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>164427</v>
+        <v>164428</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -14169,13 +14169,13 @@
         </is>
       </c>
       <c r="D458" s="2" t="n">
-        <v>44287</v>
+        <v>44288</v>
       </c>
       <c r="E458" t="n">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F458" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G458" t="n">
         <v>23855008</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>164428</v>
+        <v>164429</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -14199,13 +14199,13 @@
         </is>
       </c>
       <c r="D459" s="2" t="n">
-        <v>44288</v>
+        <v>44289</v>
       </c>
       <c r="E459" t="n">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="F459" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G459" t="n">
         <v>23855008</v>
@@ -14216,7 +14216,7 @@
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>164429</v>
+        <v>164430</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -14229,13 +14229,13 @@
         </is>
       </c>
       <c r="D460" s="2" t="n">
-        <v>44289</v>
+        <v>44290</v>
       </c>
       <c r="E460" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F460" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G460" t="n">
         <v>23855008</v>
@@ -14246,7 +14246,7 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>164430</v>
+        <v>164431</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -14259,24 +14259,24 @@
         </is>
       </c>
       <c r="D461" s="2" t="n">
-        <v>44290</v>
+        <v>44291</v>
       </c>
       <c r="E461" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G461" t="n">
         <v>23855008</v>
       </c>
       <c r="H461" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>164431</v>
+        <v>164432</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -14289,24 +14289,24 @@
         </is>
       </c>
       <c r="D462" s="2" t="n">
-        <v>44291</v>
+        <v>44292</v>
       </c>
       <c r="E462" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F462" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G462" t="n">
         <v>23855008</v>
       </c>
       <c r="H462" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>164432</v>
+        <v>164433</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -14319,24 +14319,24 @@
         </is>
       </c>
       <c r="D463" s="2" t="n">
-        <v>44292</v>
+        <v>44293</v>
       </c>
       <c r="E463" t="n">
         <v>1050</v>
       </c>
       <c r="F463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G463" t="n">
         <v>23855008</v>
       </c>
       <c r="H463" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>164433</v>
+        <v>164434</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="D464" s="2" t="n">
-        <v>44293</v>
+        <v>44294</v>
       </c>
       <c r="E464" t="n">
         <v>1050</v>
@@ -14366,7 +14366,7 @@
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>164434</v>
+        <v>164435</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -14379,13 +14379,13 @@
         </is>
       </c>
       <c r="D465" s="2" t="n">
-        <v>44294</v>
+        <v>44295</v>
       </c>
       <c r="E465" t="n">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="F465" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G465" t="n">
         <v>23855008</v>
@@ -14396,7 +14396,7 @@
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>164435</v>
+        <v>164436</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -14409,13 +14409,13 @@
         </is>
       </c>
       <c r="D466" s="2" t="n">
-        <v>44295</v>
+        <v>44296</v>
       </c>
       <c r="E466" t="n">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="F466" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G466" t="n">
         <v>23855008</v>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>164436</v>
+        <v>164437</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -14439,13 +14439,13 @@
         </is>
       </c>
       <c r="D467" s="2" t="n">
-        <v>44296</v>
+        <v>44297</v>
       </c>
       <c r="E467" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G467" t="n">
         <v>23855008</v>
@@ -14456,7 +14456,7 @@
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>164437</v>
+        <v>164438</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -14469,10 +14469,10 @@
         </is>
       </c>
       <c r="D468" s="2" t="n">
-        <v>44297</v>
+        <v>44298</v>
       </c>
       <c r="E468" t="n">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="F468" t="n">
         <v>1</v>
@@ -14481,12 +14481,12 @@
         <v>23855008</v>
       </c>
       <c r="H468" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>164438</v>
+        <v>164439</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -14499,13 +14499,13 @@
         </is>
       </c>
       <c r="D469" s="2" t="n">
-        <v>44298</v>
+        <v>44299</v>
       </c>
       <c r="E469" t="n">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="F469" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G469" t="n">
         <v>23855008</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>164439</v>
+        <v>164440</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -14529,24 +14529,24 @@
         </is>
       </c>
       <c r="D470" s="2" t="n">
-        <v>44299</v>
+        <v>44300</v>
       </c>
       <c r="E470" t="n">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="F470" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G470" t="n">
         <v>23855008</v>
       </c>
       <c r="H470" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>164440</v>
+        <v>164441</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -14559,13 +14559,13 @@
         </is>
       </c>
       <c r="D471" s="2" t="n">
-        <v>44300</v>
+        <v>44301</v>
       </c>
       <c r="E471" t="n">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F471" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G471" t="n">
         <v>23855008</v>
@@ -14576,7 +14576,7 @@
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>164441</v>
+        <v>164442</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -14589,13 +14589,13 @@
         </is>
       </c>
       <c r="D472" s="2" t="n">
-        <v>44301</v>
+        <v>44302</v>
       </c>
       <c r="E472" t="n">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="F472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G472" t="n">
         <v>23855008</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>164442</v>
+        <v>164443</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -14619,10 +14619,10 @@
         </is>
       </c>
       <c r="D473" s="2" t="n">
-        <v>44302</v>
+        <v>44303</v>
       </c>
       <c r="E473" t="n">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="F473" t="n">
         <v>2</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>164443</v>
+        <v>164444</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -14649,13 +14649,13 @@
         </is>
       </c>
       <c r="D474" s="2" t="n">
-        <v>44303</v>
+        <v>44304</v>
       </c>
       <c r="E474" t="n">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G474" t="n">
         <v>23855008</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>164444</v>
+        <v>164445</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -14679,13 +14679,13 @@
         </is>
       </c>
       <c r="D475" s="2" t="n">
-        <v>44304</v>
+        <v>44305</v>
       </c>
       <c r="E475" t="n">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="F475" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G475" t="n">
         <v>23855008</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>164445</v>
+        <v>164446</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -14709,13 +14709,13 @@
         </is>
       </c>
       <c r="D476" s="2" t="n">
-        <v>44305</v>
+        <v>44306</v>
       </c>
       <c r="E476" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G476" t="n">
         <v>23855008</v>
@@ -14726,7 +14726,7 @@
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>164446</v>
+        <v>164447</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -14739,13 +14739,13 @@
         </is>
       </c>
       <c r="D477" s="2" t="n">
-        <v>44306</v>
+        <v>44307</v>
       </c>
       <c r="E477" t="n">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F477" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G477" t="n">
         <v>23855008</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>164447</v>
+        <v>164448</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -14769,10 +14769,10 @@
         </is>
       </c>
       <c r="D478" s="2" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
       <c r="E478" t="n">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="F478" t="n">
         <v>4</v>
@@ -14786,7 +14786,7 @@
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>164448</v>
+        <v>164449</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -14799,10 +14799,10 @@
         </is>
       </c>
       <c r="D479" s="2" t="n">
-        <v>44308</v>
+        <v>44309</v>
       </c>
       <c r="E479" t="n">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="F479" t="n">
         <v>4</v>
@@ -14816,7 +14816,7 @@
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>164449</v>
+        <v>164450</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -14829,24 +14829,24 @@
         </is>
       </c>
       <c r="D480" s="2" t="n">
-        <v>44309</v>
+        <v>44310</v>
       </c>
       <c r="E480" t="n">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="F480" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G480" t="n">
         <v>23855008</v>
       </c>
       <c r="H480" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>164450</v>
+        <v>164451</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -14859,13 +14859,13 @@
         </is>
       </c>
       <c r="D481" s="2" t="n">
-        <v>44310</v>
+        <v>44311</v>
       </c>
       <c r="E481" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="F481" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G481" t="n">
         <v>23855008</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>164451</v>
+        <v>164452</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -14889,24 +14889,24 @@
         </is>
       </c>
       <c r="D482" s="2" t="n">
-        <v>44311</v>
+        <v>44312</v>
       </c>
       <c r="E482" t="n">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="F482" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G482" t="n">
         <v>23855008</v>
       </c>
       <c r="H482" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>164452</v>
+        <v>164453</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -14919,13 +14919,13 @@
         </is>
       </c>
       <c r="D483" s="2" t="n">
-        <v>44312</v>
+        <v>44313</v>
       </c>
       <c r="E483" t="n">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="F483" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G483" t="n">
         <v>23855008</v>
@@ -14936,7 +14936,7 @@
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>164453</v>
+        <v>164454</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -14949,10 +14949,10 @@
         </is>
       </c>
       <c r="D484" s="2" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="E484" t="n">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="F484" t="n">
         <v>6</v>
@@ -14966,7 +14966,7 @@
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>164454</v>
+        <v>164455</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -14979,24 +14979,24 @@
         </is>
       </c>
       <c r="D485" s="2" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="E485" t="n">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="F485" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G485" t="n">
         <v>23855008</v>
       </c>
       <c r="H485" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>164455</v>
+        <v>164456</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -15009,13 +15009,13 @@
         </is>
       </c>
       <c r="D486" s="2" t="n">
-        <v>44315</v>
+        <v>44316</v>
       </c>
       <c r="E486" t="n">
-        <v>1121</v>
+        <v>1128</v>
       </c>
       <c r="F486" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G486" t="n">
         <v>23855008</v>
@@ -15026,7 +15026,7 @@
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>164456</v>
+        <v>164457</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -15039,24 +15039,24 @@
         </is>
       </c>
       <c r="D487" s="2" t="n">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="E487" t="n">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="F487" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G487" t="n">
         <v>23855008</v>
       </c>
       <c r="H487" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>164457</v>
+        <v>164458</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -15069,13 +15069,13 @@
         </is>
       </c>
       <c r="D488" s="2" t="n">
-        <v>44317</v>
+        <v>44318</v>
       </c>
       <c r="E488" t="n">
-        <v>1132</v>
+        <v>1137</v>
       </c>
       <c r="F488" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G488" t="n">
         <v>23855008</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>164458</v>
+        <v>164459</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -15099,13 +15099,13 @@
         </is>
       </c>
       <c r="D489" s="2" t="n">
-        <v>44318</v>
+        <v>44319</v>
       </c>
       <c r="E489" t="n">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="F489" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G489" t="n">
         <v>23855008</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>164459</v>
+        <v>164460</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -15129,10 +15129,10 @@
         </is>
       </c>
       <c r="D490" s="2" t="n">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="E490" t="n">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="F490" t="n">
         <v>8</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>164460</v>
+        <v>164461</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -15159,13 +15159,13 @@
         </is>
       </c>
       <c r="D491" s="2" t="n">
-        <v>44320</v>
+        <v>44321</v>
       </c>
       <c r="E491" t="n">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="F491" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G491" t="n">
         <v>23855008</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>164461</v>
+        <v>164462</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -15189,24 +15189,24 @@
         </is>
       </c>
       <c r="D492" s="2" t="n">
-        <v>44321</v>
+        <v>44322</v>
       </c>
       <c r="E492" t="n">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="F492" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G492" t="n">
         <v>23855008</v>
       </c>
       <c r="H492" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>164462</v>
+        <v>164463</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -15219,24 +15219,24 @@
         </is>
       </c>
       <c r="D493" s="2" t="n">
-        <v>44322</v>
+        <v>44323</v>
       </c>
       <c r="E493" t="n">
-        <v>1173</v>
+        <v>1178</v>
       </c>
       <c r="F493" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G493" t="n">
         <v>23855008</v>
       </c>
       <c r="H493" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>164463</v>
+        <v>164464</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -15249,10 +15249,10 @@
         </is>
       </c>
       <c r="D494" s="2" t="n">
-        <v>44323</v>
+        <v>44324</v>
       </c>
       <c r="E494" t="n">
-        <v>1178</v>
+        <v>1183</v>
       </c>
       <c r="F494" t="n">
         <v>5</v>
@@ -15261,12 +15261,12 @@
         <v>23855008</v>
       </c>
       <c r="H494" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>164464</v>
+        <v>164465</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -15279,13 +15279,13 @@
         </is>
       </c>
       <c r="D495" s="2" t="n">
-        <v>44324</v>
+        <v>44325</v>
       </c>
       <c r="E495" t="n">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F495" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G495" t="n">
         <v>23855008</v>
@@ -15296,7 +15296,7 @@
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>164465</v>
+        <v>164466</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -15309,24 +15309,24 @@
         </is>
       </c>
       <c r="D496" s="2" t="n">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="E496" t="n">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="F496" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G496" t="n">
         <v>23855008</v>
       </c>
       <c r="H496" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>164466</v>
+        <v>164467</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -15339,24 +15339,24 @@
         </is>
       </c>
       <c r="D497" s="2" t="n">
-        <v>44326</v>
+        <v>44327</v>
       </c>
       <c r="E497" t="n">
-        <v>1199</v>
+        <v>1210</v>
       </c>
       <c r="F497" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G497" t="n">
         <v>23855008</v>
       </c>
       <c r="H497" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>164467</v>
+        <v>164468</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -15369,24 +15369,24 @@
         </is>
       </c>
       <c r="D498" s="2" t="n">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="E498" t="n">
-        <v>1210</v>
+        <v>1231</v>
       </c>
       <c r="F498" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G498" t="n">
         <v>23855008</v>
       </c>
       <c r="H498" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>164468</v>
+        <v>164469</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -15399,24 +15399,24 @@
         </is>
       </c>
       <c r="D499" s="2" t="n">
-        <v>44328</v>
+        <v>44329</v>
       </c>
       <c r="E499" t="n">
-        <v>1231</v>
+        <v>1256</v>
       </c>
       <c r="F499" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G499" t="n">
         <v>23855008</v>
       </c>
       <c r="H499" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>164469</v>
+        <v>164470</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -15429,24 +15429,24 @@
         </is>
       </c>
       <c r="D500" s="2" t="n">
-        <v>44329</v>
+        <v>44330</v>
       </c>
       <c r="E500" t="n">
-        <v>1256</v>
+        <v>1290</v>
       </c>
       <c r="F500" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G500" t="n">
         <v>23855008</v>
       </c>
       <c r="H500" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>164470</v>
+        <v>164471</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -15459,24 +15459,24 @@
         </is>
       </c>
       <c r="D501" s="2" t="n">
-        <v>44330</v>
+        <v>44331</v>
       </c>
       <c r="E501" t="n">
-        <v>1290</v>
+        <v>1475</v>
       </c>
       <c r="F501" t="n">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="G501" t="n">
         <v>23855008</v>
       </c>
       <c r="H501" t="n">
-        <v>0.18</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>164471</v>
+        <v>164472</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -15489,24 +15489,24 @@
         </is>
       </c>
       <c r="D502" s="2" t="n">
-        <v>44331</v>
+        <v>44332</v>
       </c>
       <c r="E502" t="n">
-        <v>1475</v>
+        <v>1682</v>
       </c>
       <c r="F502" t="n">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G502" t="n">
         <v>23855008</v>
       </c>
       <c r="H502" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>164472</v>
+        <v>164473</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -15519,24 +15519,24 @@
         </is>
       </c>
       <c r="D503" s="2" t="n">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="E503" t="n">
-        <v>1682</v>
+        <v>2017</v>
       </c>
       <c r="F503" t="n">
-        <v>207</v>
+        <v>335</v>
       </c>
       <c r="G503" t="n">
         <v>23855008</v>
       </c>
       <c r="H503" t="n">
-        <v>0.52</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>164473</v>
+        <v>164474</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -15549,24 +15549,24 @@
         </is>
       </c>
       <c r="D504" s="2" t="n">
-        <v>44333</v>
+        <v>44334</v>
       </c>
       <c r="E504" t="n">
-        <v>2017</v>
+        <v>2260</v>
       </c>
       <c r="F504" t="n">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="G504" t="n">
         <v>23855008</v>
       </c>
       <c r="H504" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>164474</v>
+        <v>164475</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -15579,24 +15579,24 @@
         </is>
       </c>
       <c r="D505" s="2" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="E505" t="n">
-        <v>2260</v>
+        <v>2533</v>
       </c>
       <c r="F505" t="n">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G505" t="n">
         <v>23855008</v>
       </c>
       <c r="H505" t="n">
-        <v>1.02</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>164475</v>
+        <v>164476</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -15609,24 +15609,24 @@
         </is>
       </c>
       <c r="D506" s="2" t="n">
-        <v>44335</v>
+        <v>44336</v>
       </c>
       <c r="E506" t="n">
-        <v>2533</v>
+        <v>2825</v>
       </c>
       <c r="F506" t="n">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="G506" t="n">
         <v>23855008</v>
       </c>
       <c r="H506" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>164476</v>
+        <v>164477</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -15639,24 +15639,24 @@
         </is>
       </c>
       <c r="D507" s="2" t="n">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="E507" t="n">
-        <v>2825</v>
+        <v>3139</v>
       </c>
       <c r="F507" t="n">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="G507" t="n">
         <v>23855008</v>
       </c>
       <c r="H507" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>164477</v>
+        <v>164478</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -15669,24 +15669,24 @@
         </is>
       </c>
       <c r="D508" s="2" t="n">
-        <v>44337</v>
+        <v>44338</v>
       </c>
       <c r="E508" t="n">
-        <v>3139</v>
+        <v>3862</v>
       </c>
       <c r="F508" t="n">
-        <v>314</v>
+        <v>723</v>
       </c>
       <c r="G508" t="n">
         <v>23855008</v>
       </c>
       <c r="H508" t="n">
-        <v>1.78</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>164478</v>
+        <v>164479</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -15699,24 +15699,24 @@
         </is>
       </c>
       <c r="D509" s="2" t="n">
-        <v>44338</v>
+        <v>44339</v>
       </c>
       <c r="E509" t="n">
-        <v>3862</v>
+        <v>4322</v>
       </c>
       <c r="F509" t="n">
-        <v>723</v>
+        <v>460</v>
       </c>
       <c r="G509" t="n">
         <v>23855008</v>
       </c>
       <c r="H509" t="n">
-        <v>2.42</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>164479</v>
+        <v>164480</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -15729,24 +15729,24 @@
         </is>
       </c>
       <c r="D510" s="2" t="n">
-        <v>44339</v>
+        <v>44340</v>
       </c>
       <c r="E510" t="n">
-        <v>4322</v>
+        <v>4917</v>
       </c>
       <c r="F510" t="n">
-        <v>460</v>
+        <v>595</v>
       </c>
       <c r="G510" t="n">
         <v>23855008</v>
       </c>
       <c r="H510" t="n">
-        <v>2.84</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>164480</v>
+        <v>164481</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -15759,24 +15759,24 @@
         </is>
       </c>
       <c r="D511" s="2" t="n">
-        <v>44340</v>
+        <v>44341</v>
       </c>
       <c r="E511" t="n">
-        <v>4917</v>
+        <v>5456</v>
       </c>
       <c r="F511" t="n">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="G511" t="n">
         <v>23855008</v>
       </c>
       <c r="H511" t="n">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>164481</v>
+        <v>164482</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -15789,24 +15789,24 @@
         </is>
       </c>
       <c r="D512" s="2" t="n">
-        <v>44341</v>
+        <v>44342</v>
       </c>
       <c r="E512" t="n">
-        <v>5456</v>
+        <v>6091</v>
       </c>
       <c r="F512" t="n">
-        <v>539</v>
+        <v>635</v>
       </c>
       <c r="G512" t="n">
         <v>23855008</v>
       </c>
       <c r="H512" t="n">
-        <v>3.85</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>164482</v>
+        <v>164483</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -15819,24 +15819,24 @@
         </is>
       </c>
       <c r="D513" s="2" t="n">
-        <v>44342</v>
+        <v>44343</v>
       </c>
       <c r="E513" t="n">
-        <v>6091</v>
+        <v>6761</v>
       </c>
       <c r="F513" t="n">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="G513" t="n">
         <v>23855008</v>
       </c>
       <c r="H513" t="n">
-        <v>4.42</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>164483</v>
+        <v>164484</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -15849,24 +15849,24 @@
         </is>
       </c>
       <c r="D514" s="2" t="n">
-        <v>44343</v>
+        <v>44344</v>
       </c>
       <c r="E514" t="n">
-        <v>6761</v>
+        <v>7315</v>
       </c>
       <c r="F514" t="n">
-        <v>670</v>
+        <v>554</v>
       </c>
       <c r="G514" t="n">
         <v>23855008</v>
       </c>
       <c r="H514" t="n">
-        <v>5.02</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>164484</v>
+        <v>164485</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -15879,24 +15879,24 @@
         </is>
       </c>
       <c r="D515" s="2" t="n">
-        <v>44344</v>
+        <v>44345</v>
       </c>
       <c r="E515" t="n">
-        <v>7315</v>
+        <v>7806</v>
       </c>
       <c r="F515" t="n">
-        <v>554</v>
+        <v>491</v>
       </c>
       <c r="G515" t="n">
         <v>23855008</v>
       </c>
       <c r="H515" t="n">
-        <v>5.53</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>164485</v>
+        <v>164486</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -15909,24 +15909,24 @@
         </is>
       </c>
       <c r="D516" s="2" t="n">
-        <v>44345</v>
+        <v>44346</v>
       </c>
       <c r="E516" t="n">
-        <v>7806</v>
+        <v>8160</v>
       </c>
       <c r="F516" t="n">
-        <v>491</v>
+        <v>354</v>
       </c>
       <c r="G516" t="n">
         <v>23855008</v>
       </c>
       <c r="H516" t="n">
-        <v>5.98</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>164486</v>
+        <v>164487</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -15939,24 +15939,24 @@
         </is>
       </c>
       <c r="D517" s="2" t="n">
-        <v>44346</v>
+        <v>44347</v>
       </c>
       <c r="E517" t="n">
-        <v>8160</v>
+        <v>8511</v>
       </c>
       <c r="F517" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G517" t="n">
         <v>23855008</v>
       </c>
       <c r="H517" t="n">
-        <v>6.3</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>164487</v>
+        <v>164488</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -15969,24 +15969,24 @@
         </is>
       </c>
       <c r="D518" s="2" t="n">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="E518" t="n">
-        <v>8511</v>
+        <v>8842</v>
       </c>
       <c r="F518" t="n">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G518" t="n">
         <v>23855008</v>
       </c>
       <c r="H518" t="n">
-        <v>6.62</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>164488</v>
+        <v>164489</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -15999,24 +15999,24 @@
         </is>
       </c>
       <c r="D519" s="2" t="n">
-        <v>44348</v>
+        <v>44349</v>
       </c>
       <c r="E519" t="n">
-        <v>8842</v>
+        <v>9389</v>
       </c>
       <c r="F519" t="n">
-        <v>331</v>
+        <v>547</v>
       </c>
       <c r="G519" t="n">
         <v>23855008</v>
       </c>
       <c r="H519" t="n">
-        <v>6.93</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>164489</v>
+        <v>164490</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -16029,24 +16029,24 @@
         </is>
       </c>
       <c r="D520" s="2" t="n">
-        <v>44349</v>
+        <v>44350</v>
       </c>
       <c r="E520" t="n">
-        <v>9389</v>
+        <v>9974</v>
       </c>
       <c r="F520" t="n">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="G520" t="n">
         <v>23855008</v>
       </c>
       <c r="H520" t="n">
-        <v>7.42</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>164490</v>
+        <v>164491</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -16059,24 +16059,24 @@
         </is>
       </c>
       <c r="D521" s="2" t="n">
-        <v>44350</v>
+        <v>44351</v>
       </c>
       <c r="E521" t="n">
-        <v>9974</v>
+        <v>10446</v>
       </c>
       <c r="F521" t="n">
-        <v>585</v>
+        <v>472</v>
       </c>
       <c r="G521" t="n">
         <v>23855008</v>
       </c>
       <c r="H521" t="n">
-        <v>7.95</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>164491</v>
+        <v>164492</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -16089,24 +16089,24 @@
         </is>
       </c>
       <c r="D522" s="2" t="n">
-        <v>44351</v>
+        <v>44352</v>
       </c>
       <c r="E522" t="n">
-        <v>10446</v>
+        <v>10956</v>
       </c>
       <c r="F522" t="n">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="G522" t="n">
         <v>23855008</v>
       </c>
       <c r="H522" t="n">
-        <v>8.390000000000001</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>164492</v>
+        <v>164493</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -16119,24 +16119,24 @@
         </is>
       </c>
       <c r="D523" s="2" t="n">
-        <v>44352</v>
+        <v>44353</v>
       </c>
       <c r="E523" t="n">
-        <v>10956</v>
+        <v>11298</v>
       </c>
       <c r="F523" t="n">
-        <v>510</v>
+        <v>342</v>
       </c>
       <c r="G523" t="n">
         <v>23855008</v>
       </c>
       <c r="H523" t="n">
-        <v>8.869999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>164493</v>
+        <v>164494</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -16149,24 +16149,24 @@
         </is>
       </c>
       <c r="D524" s="2" t="n">
-        <v>44353</v>
+        <v>44354</v>
       </c>
       <c r="E524" t="n">
-        <v>11298</v>
+        <v>11491</v>
       </c>
       <c r="F524" t="n">
-        <v>342</v>
+        <v>193</v>
       </c>
       <c r="G524" t="n">
         <v>23855008</v>
       </c>
       <c r="H524" t="n">
-        <v>9.210000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>164494</v>
+        <v>164495</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -16179,24 +16179,24 @@
         </is>
       </c>
       <c r="D525" s="2" t="n">
-        <v>44354</v>
+        <v>44355</v>
       </c>
       <c r="E525" t="n">
-        <v>11491</v>
+        <v>11694</v>
       </c>
       <c r="F525" t="n">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G525" t="n">
         <v>23855008</v>
       </c>
       <c r="H525" t="n">
-        <v>9.4</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>164495</v>
+        <v>164496</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -16209,24 +16209,24 @@
         </is>
       </c>
       <c r="D526" s="2" t="n">
-        <v>44355</v>
+        <v>44356</v>
       </c>
       <c r="E526" t="n">
-        <v>11694</v>
+        <v>11968</v>
       </c>
       <c r="F526" t="n">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="G526" t="n">
         <v>23855008</v>
       </c>
       <c r="H526" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>164496</v>
+        <v>164497</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -16239,24 +16239,24 @@
         </is>
       </c>
       <c r="D527" s="2" t="n">
-        <v>44356</v>
+        <v>44357</v>
       </c>
       <c r="E527" t="n">
-        <v>11968</v>
+        <v>12222</v>
       </c>
       <c r="F527" t="n">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="G527" t="n">
         <v>23855008</v>
       </c>
       <c r="H527" t="n">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>164497</v>
+        <v>164498</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -16269,24 +16269,24 @@
         </is>
       </c>
       <c r="D528" s="2" t="n">
-        <v>44357</v>
+        <v>44358</v>
       </c>
       <c r="E528" t="n">
-        <v>12222</v>
+        <v>12500</v>
       </c>
       <c r="F528" t="n">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="G528" t="n">
         <v>23855008</v>
       </c>
       <c r="H528" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>164498</v>
+        <v>164499</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -16299,24 +16299,24 @@
         </is>
       </c>
       <c r="D529" s="2" t="n">
-        <v>44358</v>
+        <v>44359</v>
       </c>
       <c r="E529" t="n">
-        <v>12500</v>
+        <v>12746</v>
       </c>
       <c r="F529" t="n">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="G529" t="n">
         <v>23855008</v>
       </c>
       <c r="H529" t="n">
-        <v>2.97</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>164499</v>
+        <v>164500</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -16329,24 +16329,24 @@
         </is>
       </c>
       <c r="D530" s="2" t="n">
-        <v>44359</v>
+        <v>44360</v>
       </c>
       <c r="E530" t="n">
-        <v>12746</v>
+        <v>12921</v>
       </c>
       <c r="F530" t="n">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="G530" t="n">
         <v>23855008</v>
       </c>
       <c r="H530" t="n">
-        <v>3.05</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>164500</v>
+        <v>164501</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -16359,24 +16359,24 @@
         </is>
       </c>
       <c r="D531" s="2" t="n">
-        <v>44360</v>
+        <v>44361</v>
       </c>
       <c r="E531" t="n">
-        <v>12921</v>
+        <v>13106</v>
       </c>
       <c r="F531" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G531" t="n">
         <v>23855008</v>
       </c>
       <c r="H531" t="n">
-        <v>3.11</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>164501</v>
+        <v>164502</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -16389,24 +16389,24 @@
         </is>
       </c>
       <c r="D532" s="2" t="n">
-        <v>44361</v>
+        <v>44362</v>
       </c>
       <c r="E532" t="n">
-        <v>13106</v>
+        <v>13241</v>
       </c>
       <c r="F532" t="n">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="G532" t="n">
         <v>23855008</v>
       </c>
       <c r="H532" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>164502</v>
+        <v>164503</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -16419,24 +16419,24 @@
         </is>
       </c>
       <c r="D533" s="2" t="n">
-        <v>44362</v>
+        <v>44363</v>
       </c>
       <c r="E533" t="n">
-        <v>13241</v>
+        <v>13409</v>
       </c>
       <c r="F533" t="n">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="G533" t="n">
         <v>23855008</v>
       </c>
       <c r="H533" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>164503</v>
+        <v>164504</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -16449,24 +16449,24 @@
         </is>
       </c>
       <c r="D534" s="2" t="n">
-        <v>44363</v>
+        <v>44364</v>
       </c>
       <c r="E534" t="n">
-        <v>13409</v>
+        <v>13584</v>
       </c>
       <c r="F534" t="n">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G534" t="n">
         <v>23855008</v>
       </c>
       <c r="H534" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>164504</v>
+        <v>164505</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -16479,13 +16479,13 @@
         </is>
       </c>
       <c r="D535" s="2" t="n">
-        <v>44364</v>
+        <v>44365</v>
       </c>
       <c r="E535" t="n">
-        <v>13584</v>
+        <v>13771</v>
       </c>
       <c r="F535" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="G535" t="n">
         <v>23855008</v>
@@ -16496,7 +16496,7 @@
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>164505</v>
+        <v>164506</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -16509,24 +16509,24 @@
         </is>
       </c>
       <c r="D536" s="2" t="n">
-        <v>44365</v>
+        <v>44366</v>
       </c>
       <c r="E536" t="n">
-        <v>13771</v>
+        <v>13896</v>
       </c>
       <c r="F536" t="n">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="G536" t="n">
         <v>23855008</v>
       </c>
       <c r="H536" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>164506</v>
+        <v>164507</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -16539,24 +16539,24 @@
         </is>
       </c>
       <c r="D537" s="2" t="n">
-        <v>44366</v>
+        <v>44367</v>
       </c>
       <c r="E537" t="n">
-        <v>13896</v>
+        <v>14005</v>
       </c>
       <c r="F537" t="n">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G537" t="n">
         <v>23855008</v>
       </c>
       <c r="H537" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>164507</v>
+        <v>164508</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -16569,13 +16569,13 @@
         </is>
       </c>
       <c r="D538" s="2" t="n">
-        <v>44367</v>
+        <v>44368</v>
       </c>
       <c r="E538" t="n">
-        <v>14005</v>
+        <v>14080</v>
       </c>
       <c r="F538" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="G538" t="n">
         <v>23855008</v>
@@ -16586,7 +16586,7 @@
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>164508</v>
+        <v>164509</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -16599,24 +16599,24 @@
         </is>
       </c>
       <c r="D539" s="2" t="n">
-        <v>44368</v>
+        <v>44369</v>
       </c>
       <c r="E539" t="n">
-        <v>14080</v>
+        <v>14157</v>
       </c>
       <c r="F539" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G539" t="n">
         <v>23855008</v>
       </c>
       <c r="H539" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>164509</v>
+        <v>164510</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -16629,24 +16629,24 @@
         </is>
       </c>
       <c r="D540" s="2" t="n">
-        <v>44369</v>
+        <v>44370</v>
       </c>
       <c r="E540" t="n">
-        <v>14157</v>
+        <v>14260</v>
       </c>
       <c r="F540" t="n">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G540" t="n">
         <v>23855008</v>
       </c>
       <c r="H540" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>164510</v>
+        <v>164511</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -16659,24 +16659,24 @@
         </is>
       </c>
       <c r="D541" s="2" t="n">
-        <v>44370</v>
+        <v>44371</v>
       </c>
       <c r="E541" t="n">
-        <v>14260</v>
+        <v>14389</v>
       </c>
       <c r="F541" t="n">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="G541" t="n">
         <v>23855008</v>
       </c>
       <c r="H541" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>164511</v>
+        <v>164512</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -16689,24 +16689,24 @@
         </is>
       </c>
       <c r="D542" s="2" t="n">
-        <v>44371</v>
+        <v>44372</v>
       </c>
       <c r="E542" t="n">
-        <v>14389</v>
+        <v>14465</v>
       </c>
       <c r="F542" t="n">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G542" t="n">
         <v>23855008</v>
       </c>
       <c r="H542" t="n">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>164512</v>
+        <v>164513</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -16719,24 +16719,24 @@
         </is>
       </c>
       <c r="D543" s="2" t="n">
-        <v>44372</v>
+        <v>44373</v>
       </c>
       <c r="E543" t="n">
-        <v>14465</v>
+        <v>14545</v>
       </c>
       <c r="F543" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G543" t="n">
         <v>23855008</v>
       </c>
       <c r="H543" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>164513</v>
+        <v>164514</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -16749,24 +16749,24 @@
         </is>
       </c>
       <c r="D544" s="2" t="n">
-        <v>44373</v>
+        <v>44374</v>
       </c>
       <c r="E544" t="n">
-        <v>14545</v>
+        <v>14634</v>
       </c>
       <c r="F544" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G544" t="n">
         <v>23855008</v>
       </c>
       <c r="H544" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>164514</v>
+        <v>164515</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -16779,24 +16779,24 @@
         </is>
       </c>
       <c r="D545" s="2" t="n">
-        <v>44374</v>
+        <v>44375</v>
       </c>
       <c r="E545" t="n">
-        <v>14634</v>
+        <v>14694</v>
       </c>
       <c r="F545" t="n">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G545" t="n">
         <v>23855008</v>
       </c>
       <c r="H545" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>164515</v>
+        <v>164516</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -16809,24 +16809,24 @@
         </is>
       </c>
       <c r="D546" s="2" t="n">
-        <v>44375</v>
+        <v>44376</v>
       </c>
       <c r="E546" t="n">
-        <v>14694</v>
+        <v>14748</v>
       </c>
       <c r="F546" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G546" t="n">
         <v>23855008</v>
       </c>
       <c r="H546" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>164516</v>
+        <v>164517</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -16839,24 +16839,24 @@
         </is>
       </c>
       <c r="D547" s="2" t="n">
-        <v>44376</v>
+        <v>44377</v>
       </c>
       <c r="E547" t="n">
-        <v>14748</v>
+        <v>14804</v>
       </c>
       <c r="F547" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G547" t="n">
         <v>23855008</v>
       </c>
       <c r="H547" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>164517</v>
+        <v>164518</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -16869,24 +16869,24 @@
         </is>
       </c>
       <c r="D548" s="2" t="n">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="E548" t="n">
-        <v>14804</v>
+        <v>14853</v>
       </c>
       <c r="F548" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G548" t="n">
         <v>23855008</v>
       </c>
       <c r="H548" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>164518</v>
+        <v>164519</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -16899,24 +16899,24 @@
         </is>
       </c>
       <c r="D549" s="2" t="n">
-        <v>44378</v>
+        <v>44379</v>
       </c>
       <c r="E549" t="n">
-        <v>14853</v>
+        <v>14911</v>
       </c>
       <c r="F549" t="n">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G549" t="n">
         <v>23855008</v>
       </c>
       <c r="H549" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>164519</v>
+        <v>164520</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -16929,24 +16929,24 @@
         </is>
       </c>
       <c r="D550" s="2" t="n">
-        <v>44379</v>
+        <v>44380</v>
       </c>
       <c r="E550" t="n">
-        <v>14911</v>
+        <v>14991</v>
       </c>
       <c r="F550" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="G550" t="n">
         <v>23855008</v>
       </c>
       <c r="H550" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>164520</v>
+        <v>164521</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -16959,24 +16959,24 @@
         </is>
       </c>
       <c r="D551" s="2" t="n">
-        <v>44380</v>
+        <v>44381</v>
       </c>
       <c r="E551" t="n">
-        <v>14991</v>
+        <v>15030</v>
       </c>
       <c r="F551" t="n">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G551" t="n">
         <v>23855008</v>
       </c>
       <c r="H551" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>164521</v>
+        <v>164522</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -16989,24 +16989,24 @@
         </is>
       </c>
       <c r="D552" s="2" t="n">
-        <v>44381</v>
+        <v>44382</v>
       </c>
       <c r="E552" t="n">
-        <v>15030</v>
+        <v>15061</v>
       </c>
       <c r="F552" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G552" t="n">
         <v>23855008</v>
       </c>
       <c r="H552" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>164522</v>
+        <v>164523</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -17019,24 +17019,24 @@
         </is>
       </c>
       <c r="D553" s="2" t="n">
-        <v>44382</v>
+        <v>44383</v>
       </c>
       <c r="E553" t="n">
-        <v>15061</v>
+        <v>15088</v>
       </c>
       <c r="F553" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G553" t="n">
         <v>23855008</v>
       </c>
       <c r="H553" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>164523</v>
+        <v>164524</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -17049,24 +17049,24 @@
         </is>
       </c>
       <c r="D554" s="2" t="n">
-        <v>44383</v>
+        <v>44384</v>
       </c>
       <c r="E554" t="n">
-        <v>15088</v>
+        <v>15128</v>
       </c>
       <c r="F554" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G554" t="n">
         <v>23855008</v>
       </c>
       <c r="H554" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>164524</v>
+        <v>164525</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -17079,24 +17079,24 @@
         </is>
       </c>
       <c r="D555" s="2" t="n">
-        <v>44384</v>
+        <v>44385</v>
       </c>
       <c r="E555" t="n">
-        <v>15128</v>
+        <v>15149</v>
       </c>
       <c r="F555" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G555" t="n">
         <v>23855008</v>
       </c>
       <c r="H555" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>164525</v>
+        <v>164526</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -17109,24 +17109,24 @@
         </is>
       </c>
       <c r="D556" s="2" t="n">
-        <v>44385</v>
+        <v>44386</v>
       </c>
       <c r="E556" t="n">
-        <v>15149</v>
+        <v>15185</v>
       </c>
       <c r="F556" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G556" t="n">
         <v>23855008</v>
       </c>
       <c r="H556" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>164526</v>
+        <v>164527</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -17139,24 +17139,24 @@
         </is>
       </c>
       <c r="D557" s="2" t="n">
-        <v>44386</v>
+        <v>44387</v>
       </c>
       <c r="E557" t="n">
-        <v>15185</v>
+        <v>15218</v>
       </c>
       <c r="F557" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G557" t="n">
         <v>23855008</v>
       </c>
       <c r="H557" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>164527</v>
+        <v>164528</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -17169,24 +17169,24 @@
         </is>
       </c>
       <c r="D558" s="2" t="n">
-        <v>44387</v>
+        <v>44388</v>
       </c>
       <c r="E558" t="n">
-        <v>15218</v>
+        <v>15249</v>
       </c>
       <c r="F558" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G558" t="n">
         <v>23855008</v>
       </c>
       <c r="H558" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>164528</v>
+        <v>164529</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -17199,13 +17199,13 @@
         </is>
       </c>
       <c r="D559" s="2" t="n">
-        <v>44388</v>
+        <v>44389</v>
       </c>
       <c r="E559" t="n">
-        <v>15249</v>
+        <v>15273</v>
       </c>
       <c r="F559" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G559" t="n">
         <v>23855008</v>
@@ -17216,7 +17216,7 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>164529</v>
+        <v>164530</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -17229,13 +17229,13 @@
         </is>
       </c>
       <c r="D560" s="2" t="n">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="E560" t="n">
-        <v>15273</v>
+        <v>15302</v>
       </c>
       <c r="F560" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G560" t="n">
         <v>23855008</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>164530</v>
+        <v>164531</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -17259,24 +17259,24 @@
         </is>
       </c>
       <c r="D561" s="2" t="n">
-        <v>44390</v>
+        <v>44391</v>
       </c>
       <c r="E561" t="n">
-        <v>15302</v>
+        <v>15328</v>
       </c>
       <c r="F561" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G561" t="n">
         <v>23855008</v>
       </c>
       <c r="H561" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>164531</v>
+        <v>164532</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -17289,13 +17289,13 @@
         </is>
       </c>
       <c r="D562" s="2" t="n">
-        <v>44391</v>
+        <v>44392</v>
       </c>
       <c r="E562" t="n">
-        <v>15328</v>
+        <v>15346</v>
       </c>
       <c r="F562" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G562" t="n">
         <v>23855008</v>
@@ -17306,7 +17306,7 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>164532</v>
+        <v>164533</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -17319,24 +17319,24 @@
         </is>
       </c>
       <c r="D563" s="2" t="n">
-        <v>44392</v>
+        <v>44393</v>
       </c>
       <c r="E563" t="n">
-        <v>15346</v>
+        <v>15378</v>
       </c>
       <c r="F563" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G563" t="n">
         <v>23855008</v>
       </c>
       <c r="H563" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>164533</v>
+        <v>164534</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -17349,13 +17349,13 @@
         </is>
       </c>
       <c r="D564" s="2" t="n">
-        <v>44393</v>
+        <v>44394</v>
       </c>
       <c r="E564" t="n">
-        <v>15378</v>
+        <v>15390</v>
       </c>
       <c r="F564" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G564" t="n">
         <v>23855008</v>
@@ -17366,7 +17366,7 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>164534</v>
+        <v>164535</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -17379,13 +17379,13 @@
         </is>
       </c>
       <c r="D565" s="2" t="n">
-        <v>44394</v>
+        <v>44395</v>
       </c>
       <c r="E565" t="n">
-        <v>15390</v>
+        <v>15408</v>
       </c>
       <c r="F565" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G565" t="n">
         <v>23855008</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>164535</v>
+        <v>164536</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -17409,13 +17409,13 @@
         </is>
       </c>
       <c r="D566" s="2" t="n">
-        <v>44395</v>
+        <v>44396</v>
       </c>
       <c r="E566" t="n">
-        <v>15408</v>
+        <v>15429</v>
       </c>
       <c r="F566" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G566" t="n">
         <v>23855008</v>
@@ -17426,7 +17426,7 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>164536</v>
+        <v>164537</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -17439,24 +17439,24 @@
         </is>
       </c>
       <c r="D567" s="2" t="n">
-        <v>44396</v>
+        <v>44397</v>
       </c>
       <c r="E567" t="n">
-        <v>15429</v>
+        <v>15453</v>
       </c>
       <c r="F567" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G567" t="n">
         <v>23855008</v>
       </c>
       <c r="H567" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>164537</v>
+        <v>164538</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -17469,13 +17469,13 @@
         </is>
       </c>
       <c r="D568" s="2" t="n">
-        <v>44397</v>
+        <v>44398</v>
       </c>
       <c r="E568" t="n">
-        <v>15453</v>
+        <v>15478</v>
       </c>
       <c r="F568" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G568" t="n">
         <v>23855008</v>
@@ -17486,7 +17486,7 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>164538</v>
+        <v>164539</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -17499,13 +17499,13 @@
         </is>
       </c>
       <c r="D569" s="2" t="n">
-        <v>44398</v>
+        <v>44399</v>
       </c>
       <c r="E569" t="n">
-        <v>15478</v>
+        <v>15511</v>
       </c>
       <c r="F569" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G569" t="n">
         <v>23855008</v>
@@ -17516,7 +17516,7 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>164539</v>
+        <v>164540</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -17529,24 +17529,24 @@
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="E570" t="n">
-        <v>15511</v>
+        <v>15535</v>
       </c>
       <c r="F570" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G570" t="n">
         <v>23855008</v>
       </c>
       <c r="H570" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>164540</v>
+        <v>164541</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -17559,13 +17559,13 @@
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>44400</v>
+        <v>44401</v>
       </c>
       <c r="E571" t="n">
-        <v>15535</v>
+        <v>15558</v>
       </c>
       <c r="F571" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G571" t="n">
         <v>23855008</v>
@@ -17576,7 +17576,7 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>164541</v>
+        <v>164542</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -17589,13 +17589,13 @@
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>44401</v>
+        <v>44402</v>
       </c>
       <c r="E572" t="n">
-        <v>15558</v>
+        <v>15571</v>
       </c>
       <c r="F572" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G572" t="n">
         <v>23855008</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>164542</v>
+        <v>164543</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -17619,13 +17619,13 @@
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>44402</v>
+        <v>44403</v>
       </c>
       <c r="E573" t="n">
-        <v>15571</v>
+        <v>15582</v>
       </c>
       <c r="F573" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G573" t="n">
         <v>23855008</v>
@@ -17636,7 +17636,7 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>164543</v>
+        <v>164544</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -17649,24 +17649,24 @@
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>44403</v>
+        <v>44404</v>
       </c>
       <c r="E574" t="n">
-        <v>15582</v>
+        <v>15599</v>
       </c>
       <c r="F574" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G574" t="n">
         <v>23855008</v>
       </c>
       <c r="H574" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>164544</v>
+        <v>164545</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -17679,13 +17679,13 @@
         </is>
       </c>
       <c r="D575" s="2" t="n">
-        <v>44404</v>
+        <v>44405</v>
       </c>
       <c r="E575" t="n">
-        <v>15599</v>
+        <v>15619</v>
       </c>
       <c r="F575" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G575" t="n">
         <v>23855008</v>
@@ -17696,7 +17696,7 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>164545</v>
+        <v>164546</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -17709,13 +17709,13 @@
         </is>
       </c>
       <c r="D576" s="2" t="n">
-        <v>44405</v>
+        <v>44406</v>
       </c>
       <c r="E576" t="n">
-        <v>15619</v>
+        <v>15637</v>
       </c>
       <c r="F576" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G576" t="n">
         <v>23855008</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>164546</v>
+        <v>164547</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -17739,13 +17739,13 @@
         </is>
       </c>
       <c r="D577" s="2" t="n">
-        <v>44406</v>
+        <v>44407</v>
       </c>
       <c r="E577" t="n">
-        <v>15637</v>
+        <v>15662</v>
       </c>
       <c r="F577" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G577" t="n">
         <v>23855008</v>
@@ -17756,7 +17756,7 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>164547</v>
+        <v>164548</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -17769,24 +17769,24 @@
         </is>
       </c>
       <c r="D578" s="2" t="n">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="E578" t="n">
-        <v>15662</v>
+        <v>15674</v>
       </c>
       <c r="F578" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G578" t="n">
         <v>23855008</v>
       </c>
       <c r="H578" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>164548</v>
+        <v>164549</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -17799,13 +17799,13 @@
         </is>
       </c>
       <c r="D579" s="2" t="n">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="E579" t="n">
-        <v>15674</v>
+        <v>15688</v>
       </c>
       <c r="F579" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G579" t="n">
         <v>23855008</v>
@@ -17816,7 +17816,7 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>164549</v>
+        <v>164550</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -17829,10 +17829,10 @@
         </is>
       </c>
       <c r="D580" s="2" t="n">
-        <v>44409</v>
+        <v>44410</v>
       </c>
       <c r="E580" t="n">
-        <v>15688</v>
+        <v>15702</v>
       </c>
       <c r="F580" t="n">
         <v>14</v>
@@ -17846,7 +17846,7 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>164550</v>
+        <v>164551</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -17859,13 +17859,13 @@
         </is>
       </c>
       <c r="D581" s="2" t="n">
-        <v>44410</v>
+        <v>44411</v>
       </c>
       <c r="E581" t="n">
-        <v>15702</v>
+        <v>15721</v>
       </c>
       <c r="F581" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G581" t="n">
         <v>23855008</v>
@@ -17876,7 +17876,7 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>164551</v>
+        <v>164552</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -17889,13 +17889,13 @@
         </is>
       </c>
       <c r="D582" s="2" t="n">
-        <v>44411</v>
+        <v>44412</v>
       </c>
       <c r="E582" t="n">
-        <v>15721</v>
+        <v>15742</v>
       </c>
       <c r="F582" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G582" t="n">
         <v>23855008</v>
@@ -17906,7 +17906,7 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>164552</v>
+        <v>164553</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -17919,13 +17919,13 @@
         </is>
       </c>
       <c r="D583" s="2" t="n">
-        <v>44412</v>
+        <v>44413</v>
       </c>
       <c r="E583" t="n">
-        <v>15742</v>
+        <v>15753</v>
       </c>
       <c r="F583" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G583" t="n">
         <v>23855008</v>
@@ -17936,7 +17936,7 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>164553</v>
+        <v>164554</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -17949,13 +17949,13 @@
         </is>
       </c>
       <c r="D584" s="2" t="n">
-        <v>44413</v>
+        <v>44414</v>
       </c>
       <c r="E584" t="n">
-        <v>15753</v>
+        <v>15765</v>
       </c>
       <c r="F584" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G584" t="n">
         <v>23855008</v>
@@ -17966,7 +17966,7 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>164554</v>
+        <v>164555</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -17979,13 +17979,13 @@
         </is>
       </c>
       <c r="D585" s="2" t="n">
-        <v>44414</v>
+        <v>44415</v>
       </c>
       <c r="E585" t="n">
-        <v>15765</v>
+        <v>15775</v>
       </c>
       <c r="F585" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G585" t="n">
         <v>23855008</v>
@@ -17996,7 +17996,7 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>164555</v>
+        <v>164556</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -18009,24 +18009,24 @@
         </is>
       </c>
       <c r="D586" s="2" t="n">
-        <v>44415</v>
+        <v>44416</v>
       </c>
       <c r="E586" t="n">
-        <v>15775</v>
+        <v>15782</v>
       </c>
       <c r="F586" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G586" t="n">
         <v>23855008</v>
       </c>
       <c r="H586" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>164556</v>
+        <v>164557</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -18039,13 +18039,13 @@
         </is>
       </c>
       <c r="D587" s="2" t="n">
-        <v>44416</v>
+        <v>44417</v>
       </c>
       <c r="E587" t="n">
-        <v>15782</v>
+        <v>15790</v>
       </c>
       <c r="F587" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G587" t="n">
         <v>23855008</v>
@@ -18056,7 +18056,7 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>164557</v>
+        <v>164558</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -18069,10 +18069,10 @@
         </is>
       </c>
       <c r="D588" s="2" t="n">
-        <v>44417</v>
+        <v>44418</v>
       </c>
       <c r="E588" t="n">
-        <v>15790</v>
+        <v>15798</v>
       </c>
       <c r="F588" t="n">
         <v>8</v>
@@ -18086,7 +18086,7 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>164558</v>
+        <v>164559</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -18099,13 +18099,13 @@
         </is>
       </c>
       <c r="D589" s="2" t="n">
-        <v>44418</v>
+        <v>44419</v>
       </c>
       <c r="E589" t="n">
-        <v>15798</v>
+        <v>15814</v>
       </c>
       <c r="F589" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G589" t="n">
         <v>23855008</v>
@@ -18116,7 +18116,7 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>164559</v>
+        <v>164560</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -18129,13 +18129,13 @@
         </is>
       </c>
       <c r="D590" s="2" t="n">
-        <v>44419</v>
+        <v>44420</v>
       </c>
       <c r="E590" t="n">
-        <v>15814</v>
+        <v>15820</v>
       </c>
       <c r="F590" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G590" t="n">
         <v>23855008</v>
@@ -18146,7 +18146,7 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>164560</v>
+        <v>164561</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -18159,13 +18159,13 @@
         </is>
       </c>
       <c r="D591" s="2" t="n">
-        <v>44420</v>
+        <v>44421</v>
       </c>
       <c r="E591" t="n">
-        <v>15820</v>
+        <v>15836</v>
       </c>
       <c r="F591" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G591" t="n">
         <v>23855008</v>
@@ -18176,7 +18176,7 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>164561</v>
+        <v>164562</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -18189,13 +18189,13 @@
         </is>
       </c>
       <c r="D592" s="2" t="n">
-        <v>44421</v>
+        <v>44422</v>
       </c>
       <c r="E592" t="n">
-        <v>15836</v>
+        <v>15843</v>
       </c>
       <c r="F592" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G592" t="n">
         <v>23855008</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>164562</v>
+        <v>164563</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -18219,13 +18219,13 @@
         </is>
       </c>
       <c r="D593" s="2" t="n">
-        <v>44422</v>
+        <v>44423</v>
       </c>
       <c r="E593" t="n">
-        <v>15843</v>
+        <v>15852</v>
       </c>
       <c r="F593" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G593" t="n">
         <v>23855008</v>
@@ -18236,7 +18236,7 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>164563</v>
+        <v>164564</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -18249,13 +18249,13 @@
         </is>
       </c>
       <c r="D594" s="2" t="n">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="E594" t="n">
-        <v>15852</v>
+        <v>15862</v>
       </c>
       <c r="F594" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G594" t="n">
         <v>23855008</v>
@@ -18266,7 +18266,7 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>164564</v>
+        <v>164565</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -18279,13 +18279,13 @@
         </is>
       </c>
       <c r="D595" s="2" t="n">
-        <v>44424</v>
+        <v>44425</v>
       </c>
       <c r="E595" t="n">
-        <v>15862</v>
+        <v>15880</v>
       </c>
       <c r="F595" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G595" t="n">
         <v>23855008</v>
@@ -18296,7 +18296,7 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>164565</v>
+        <v>164566</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -18309,13 +18309,13 @@
         </is>
       </c>
       <c r="D596" s="2" t="n">
-        <v>44425</v>
+        <v>44426</v>
       </c>
       <c r="E596" t="n">
-        <v>15880</v>
+        <v>15891</v>
       </c>
       <c r="F596" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G596" t="n">
         <v>23855008</v>
@@ -18326,7 +18326,7 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>164566</v>
+        <v>164567</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -18339,24 +18339,24 @@
         </is>
       </c>
       <c r="D597" s="2" t="n">
-        <v>44426</v>
+        <v>44427</v>
       </c>
       <c r="E597" t="n">
-        <v>15891</v>
+        <v>15897</v>
       </c>
       <c r="F597" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G597" t="n">
         <v>23855008</v>
       </c>
       <c r="H597" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>164567</v>
+        <v>164568</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -18369,13 +18369,13 @@
         </is>
       </c>
       <c r="D598" s="2" t="n">
-        <v>44427</v>
+        <v>44428</v>
       </c>
       <c r="E598" t="n">
-        <v>15897</v>
+        <v>15906</v>
       </c>
       <c r="F598" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G598" t="n">
         <v>23855008</v>
@@ -18386,7 +18386,7 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>164568</v>
+        <v>164569</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -18399,24 +18399,24 @@
         </is>
       </c>
       <c r="D599" s="2" t="n">
-        <v>44428</v>
+        <v>44429</v>
       </c>
       <c r="E599" t="n">
-        <v>15906</v>
+        <v>15916</v>
       </c>
       <c r="F599" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G599" t="n">
         <v>23855008</v>
       </c>
       <c r="H599" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>164569</v>
+        <v>164570</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -18429,10 +18429,10 @@
         </is>
       </c>
       <c r="D600" s="2" t="n">
-        <v>44429</v>
+        <v>44430</v>
       </c>
       <c r="E600" t="n">
-        <v>15916</v>
+        <v>15926</v>
       </c>
       <c r="F600" t="n">
         <v>10</v>
@@ -18446,7 +18446,7 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>164570</v>
+        <v>164571</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -18459,13 +18459,13 @@
         </is>
       </c>
       <c r="D601" s="2" t="n">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="E601" t="n">
-        <v>15926</v>
+        <v>15932</v>
       </c>
       <c r="F601" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G601" t="n">
         <v>23855008</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>164571</v>
+        <v>164572</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -18489,10 +18489,10 @@
         </is>
       </c>
       <c r="D602" s="2" t="n">
-        <v>44431</v>
+        <v>44432</v>
       </c>
       <c r="E602" t="n">
-        <v>15932</v>
+        <v>15938</v>
       </c>
       <c r="F602" t="n">
         <v>6</v>
@@ -18506,7 +18506,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>164572</v>
+        <v>164573</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -18519,13 +18519,13 @@
         </is>
       </c>
       <c r="D603" s="2" t="n">
-        <v>44432</v>
+        <v>44433</v>
       </c>
       <c r="E603" t="n">
-        <v>15938</v>
+        <v>15939</v>
       </c>
       <c r="F603" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G603" t="n">
         <v>23855008</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>164573</v>
+        <v>164574</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -18549,13 +18549,13 @@
         </is>
       </c>
       <c r="D604" s="2" t="n">
-        <v>44433</v>
+        <v>44434</v>
       </c>
       <c r="E604" t="n">
-        <v>15939</v>
+        <v>15947</v>
       </c>
       <c r="F604" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G604" t="n">
         <v>23855008</v>
@@ -18566,7 +18566,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>164574</v>
+        <v>164575</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -18579,13 +18579,13 @@
         </is>
       </c>
       <c r="D605" s="2" t="n">
-        <v>44434</v>
+        <v>44435</v>
       </c>
       <c r="E605" t="n">
-        <v>15947</v>
+        <v>15954</v>
       </c>
       <c r="F605" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G605" t="n">
         <v>23855008</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>164575</v>
+        <v>164576</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -18609,13 +18609,13 @@
         </is>
       </c>
       <c r="D606" s="2" t="n">
-        <v>44435</v>
+        <v>44436</v>
       </c>
       <c r="E606" t="n">
-        <v>15954</v>
+        <v>15960</v>
       </c>
       <c r="F606" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G606" t="n">
         <v>23855008</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>164576</v>
+        <v>164577</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -18639,13 +18639,13 @@
         </is>
       </c>
       <c r="D607" s="2" t="n">
-        <v>44436</v>
+        <v>44437</v>
       </c>
       <c r="E607" t="n">
-        <v>15960</v>
+        <v>15983</v>
       </c>
       <c r="F607" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G607" t="n">
         <v>23855008</v>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>164577</v>
+        <v>164578</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -18669,13 +18669,13 @@
         </is>
       </c>
       <c r="D608" s="2" t="n">
-        <v>44437</v>
+        <v>44438</v>
       </c>
       <c r="E608" t="n">
-        <v>15983</v>
+        <v>15991</v>
       </c>
       <c r="F608" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G608" t="n">
         <v>23855008</v>
@@ -18686,7 +18686,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>164578</v>
+        <v>164579</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -18699,13 +18699,13 @@
         </is>
       </c>
       <c r="D609" s="2" t="n">
-        <v>44438</v>
+        <v>44439</v>
       </c>
       <c r="E609" t="n">
-        <v>15991</v>
+        <v>15995</v>
       </c>
       <c r="F609" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G609" t="n">
         <v>23855008</v>
@@ -18716,7 +18716,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>164579</v>
+        <v>164580</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -18729,13 +18729,13 @@
         </is>
       </c>
       <c r="D610" s="2" t="n">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="E610" t="n">
-        <v>15995</v>
+        <v>16001</v>
       </c>
       <c r="F610" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G610" t="n">
         <v>23855008</v>
@@ -18746,7 +18746,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>164580</v>
+        <v>164581</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -18759,13 +18759,13 @@
         </is>
       </c>
       <c r="D611" s="2" t="n">
-        <v>44440</v>
+        <v>44441</v>
       </c>
       <c r="E611" t="n">
-        <v>16001</v>
+        <v>16006</v>
       </c>
       <c r="F611" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G611" t="n">
         <v>23855008</v>
@@ -18776,7 +18776,7 @@
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>164581</v>
+        <v>164582</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -18789,13 +18789,13 @@
         </is>
       </c>
       <c r="D612" s="2" t="n">
-        <v>44441</v>
+        <v>44442</v>
       </c>
       <c r="E612" t="n">
-        <v>16006</v>
+        <v>16012</v>
       </c>
       <c r="F612" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G612" t="n">
         <v>23855008</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>164582</v>
+        <v>164583</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -18819,13 +18819,13 @@
         </is>
       </c>
       <c r="D613" s="2" t="n">
-        <v>44442</v>
+        <v>44443</v>
       </c>
       <c r="E613" t="n">
-        <v>16012</v>
+        <v>16013</v>
       </c>
       <c r="F613" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G613" t="n">
         <v>23855008</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>164583</v>
+        <v>164584</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -18849,13 +18849,13 @@
         </is>
       </c>
       <c r="D614" s="2" t="n">
-        <v>44443</v>
+        <v>44444</v>
       </c>
       <c r="E614" t="n">
-        <v>16013</v>
+        <v>16019</v>
       </c>
       <c r="F614" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G614" t="n">
         <v>23855008</v>
@@ -18866,7 +18866,7 @@
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>164584</v>
+        <v>164585</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -18879,13 +18879,13 @@
         </is>
       </c>
       <c r="D615" s="2" t="n">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="E615" t="n">
-        <v>16019</v>
+        <v>16035</v>
       </c>
       <c r="F615" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G615" t="n">
         <v>23855008</v>
@@ -18896,7 +18896,7 @@
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>164585</v>
+        <v>164586</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -18909,13 +18909,13 @@
         </is>
       </c>
       <c r="D616" s="2" t="n">
-        <v>44445</v>
+        <v>44446</v>
       </c>
       <c r="E616" t="n">
-        <v>16035</v>
+        <v>16047</v>
       </c>
       <c r="F616" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G616" t="n">
         <v>23855008</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>164586</v>
+        <v>164587</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -18939,13 +18939,13 @@
         </is>
       </c>
       <c r="D617" s="2" t="n">
-        <v>44446</v>
+        <v>44447</v>
       </c>
       <c r="E617" t="n">
-        <v>16047</v>
+        <v>16056</v>
       </c>
       <c r="F617" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G617" t="n">
         <v>23855008</v>
@@ -18956,7 +18956,7 @@
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>164587</v>
+        <v>164588</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -18969,13 +18969,13 @@
         </is>
       </c>
       <c r="D618" s="2" t="n">
-        <v>44447</v>
+        <v>44448</v>
       </c>
       <c r="E618" t="n">
-        <v>16056</v>
+        <v>16062</v>
       </c>
       <c r="F618" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G618" t="n">
         <v>23855008</v>
@@ -18986,7 +18986,7 @@
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>164588</v>
+        <v>164589</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -18999,13 +18999,13 @@
         </is>
       </c>
       <c r="D619" s="2" t="n">
-        <v>44448</v>
+        <v>44449</v>
       </c>
       <c r="E619" t="n">
-        <v>16062</v>
+        <v>16069</v>
       </c>
       <c r="F619" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G619" t="n">
         <v>23855008</v>
@@ -19016,7 +19016,7 @@
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>164589</v>
+        <v>164590</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -19029,13 +19029,13 @@
         </is>
       </c>
       <c r="D620" s="2" t="n">
-        <v>44449</v>
+        <v>44450</v>
       </c>
       <c r="E620" t="n">
-        <v>16069</v>
+        <v>16074</v>
       </c>
       <c r="F620" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G620" t="n">
         <v>23855008</v>
@@ -19046,7 +19046,7 @@
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>164590</v>
+        <v>164591</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -19059,13 +19059,13 @@
         </is>
       </c>
       <c r="D621" s="2" t="n">
-        <v>44450</v>
+        <v>44451</v>
       </c>
       <c r="E621" t="n">
-        <v>16074</v>
+        <v>16088</v>
       </c>
       <c r="F621" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G621" t="n">
         <v>23855008</v>
@@ -19076,7 +19076,7 @@
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>164591</v>
+        <v>164592</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -19089,13 +19089,13 @@
         </is>
       </c>
       <c r="D622" s="2" t="n">
-        <v>44451</v>
+        <v>44452</v>
       </c>
       <c r="E622" t="n">
-        <v>16088</v>
+        <v>16093</v>
       </c>
       <c r="F622" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G622" t="n">
         <v>23855008</v>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>164592</v>
+        <v>164593</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -19119,10 +19119,10 @@
         </is>
       </c>
       <c r="D623" s="2" t="n">
-        <v>44452</v>
+        <v>44453</v>
       </c>
       <c r="E623" t="n">
-        <v>16093</v>
+        <v>16098</v>
       </c>
       <c r="F623" t="n">
         <v>5</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>164593</v>
+        <v>164594</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -19149,10 +19149,10 @@
         </is>
       </c>
       <c r="D624" s="2" t="n">
-        <v>44453</v>
+        <v>44454</v>
       </c>
       <c r="E624" t="n">
-        <v>16098</v>
+        <v>16103</v>
       </c>
       <c r="F624" t="n">
         <v>5</v>
@@ -19161,12 +19161,12 @@
         <v>23855008</v>
       </c>
       <c r="H624" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>164594</v>
+        <v>164595</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -19179,13 +19179,13 @@
         </is>
       </c>
       <c r="D625" s="2" t="n">
-        <v>44454</v>
+        <v>44455</v>
       </c>
       <c r="E625" t="n">
-        <v>16103</v>
+        <v>16115</v>
       </c>
       <c r="F625" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G625" t="n">
         <v>23855008</v>
@@ -19196,7 +19196,7 @@
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>164595</v>
+        <v>164596</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -19209,13 +19209,13 @@
         </is>
       </c>
       <c r="D626" s="2" t="n">
-        <v>44455</v>
+        <v>44456</v>
       </c>
       <c r="E626" t="n">
-        <v>16115</v>
+        <v>16123</v>
       </c>
       <c r="F626" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G626" t="n">
         <v>23855008</v>
@@ -19226,7 +19226,7 @@
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>164596</v>
+        <v>164597</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -19239,13 +19239,13 @@
         </is>
       </c>
       <c r="D627" s="2" t="n">
-        <v>44456</v>
+        <v>44457</v>
       </c>
       <c r="E627" t="n">
-        <v>16123</v>
+        <v>16129</v>
       </c>
       <c r="F627" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G627" t="n">
         <v>23855008</v>
@@ -19256,7 +19256,7 @@
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>164597</v>
+        <v>164598</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -19269,13 +19269,13 @@
         </is>
       </c>
       <c r="D628" s="2" t="n">
-        <v>44457</v>
+        <v>44458</v>
       </c>
       <c r="E628" t="n">
-        <v>16129</v>
+        <v>16141</v>
       </c>
       <c r="F628" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G628" t="n">
         <v>23855008</v>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>164598</v>
+        <v>164599</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -19299,13 +19299,13 @@
         </is>
       </c>
       <c r="D629" s="2" t="n">
-        <v>44458</v>
+        <v>44459</v>
       </c>
       <c r="E629" t="n">
-        <v>16141</v>
+        <v>16147</v>
       </c>
       <c r="F629" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G629" t="n">
         <v>23855008</v>
@@ -19316,7 +19316,7 @@
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>164599</v>
+        <v>164600</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -19329,13 +19329,13 @@
         </is>
       </c>
       <c r="D630" s="2" t="n">
-        <v>44459</v>
+        <v>44460</v>
       </c>
       <c r="E630" t="n">
-        <v>16147</v>
+        <v>16152</v>
       </c>
       <c r="F630" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G630" t="n">
         <v>23855008</v>
@@ -19346,7 +19346,7 @@
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>164600</v>
+        <v>164601</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -19359,13 +19359,13 @@
         </is>
       </c>
       <c r="D631" s="2" t="n">
-        <v>44460</v>
+        <v>44461</v>
       </c>
       <c r="E631" t="n">
-        <v>16152</v>
+        <v>16159</v>
       </c>
       <c r="F631" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G631" t="n">
         <v>23855008</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>164601</v>
+        <v>164602</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -19389,13 +19389,13 @@
         </is>
       </c>
       <c r="D632" s="2" t="n">
-        <v>44461</v>
+        <v>44462</v>
       </c>
       <c r="E632" t="n">
-        <v>16159</v>
+        <v>16168</v>
       </c>
       <c r="F632" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G632" t="n">
         <v>23855008</v>
@@ -19406,7 +19406,7 @@
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>164602</v>
+        <v>164603</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -19419,13 +19419,13 @@
         </is>
       </c>
       <c r="D633" s="2" t="n">
-        <v>44462</v>
+        <v>44463</v>
       </c>
       <c r="E633" t="n">
-        <v>16168</v>
+        <v>16176</v>
       </c>
       <c r="F633" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G633" t="n">
         <v>23855008</v>
@@ -19436,7 +19436,7 @@
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>164603</v>
+        <v>164604</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -19449,13 +19449,13 @@
         </is>
       </c>
       <c r="D634" s="2" t="n">
-        <v>44463</v>
+        <v>44464</v>
       </c>
       <c r="E634" t="n">
-        <v>16176</v>
+        <v>16181</v>
       </c>
       <c r="F634" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G634" t="n">
         <v>23855008</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>164604</v>
+        <v>164605</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -19479,13 +19479,13 @@
         </is>
       </c>
       <c r="D635" s="2" t="n">
-        <v>44464</v>
+        <v>44465</v>
       </c>
       <c r="E635" t="n">
-        <v>16181</v>
+        <v>16189</v>
       </c>
       <c r="F635" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G635" t="n">
         <v>23855008</v>
@@ -19496,7 +19496,7 @@
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>164605</v>
+        <v>164606</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -19509,13 +19509,13 @@
         </is>
       </c>
       <c r="D636" s="2" t="n">
-        <v>44465</v>
+        <v>44466</v>
       </c>
       <c r="E636" t="n">
-        <v>16189</v>
+        <v>16198</v>
       </c>
       <c r="F636" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G636" t="n">
         <v>23855008</v>
@@ -19526,7 +19526,7 @@
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>164606</v>
+        <v>164607</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -19539,13 +19539,13 @@
         </is>
       </c>
       <c r="D637" s="2" t="n">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="E637" t="n">
-        <v>16198</v>
+        <v>16205</v>
       </c>
       <c r="F637" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G637" t="n">
         <v>23855008</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>164607</v>
+        <v>164608</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -19569,13 +19569,13 @@
         </is>
       </c>
       <c r="D638" s="2" t="n">
-        <v>44467</v>
+        <v>44468</v>
       </c>
       <c r="E638" t="n">
-        <v>16205</v>
+        <v>16216</v>
       </c>
       <c r="F638" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G638" t="n">
         <v>23855008</v>
@@ -19586,7 +19586,7 @@
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>164608</v>
+        <v>164609</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -19599,13 +19599,13 @@
         </is>
       </c>
       <c r="D639" s="2" t="n">
-        <v>44468</v>
+        <v>44469</v>
       </c>
       <c r="E639" t="n">
-        <v>16216</v>
+        <v>16223</v>
       </c>
       <c r="F639" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G639" t="n">
         <v>23855008</v>
@@ -19616,7 +19616,7 @@
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>164609</v>
+        <v>164610</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -19629,13 +19629,13 @@
         </is>
       </c>
       <c r="D640" s="2" t="n">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="E640" t="n">
-        <v>16223</v>
+        <v>16234</v>
       </c>
       <c r="F640" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G640" t="n">
         <v>23855008</v>
@@ -19646,7 +19646,7 @@
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>164610</v>
+        <v>164611</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -19659,13 +19659,13 @@
         </is>
       </c>
       <c r="D641" s="2" t="n">
-        <v>44470</v>
+        <v>44471</v>
       </c>
       <c r="E641" t="n">
-        <v>16234</v>
+        <v>16244</v>
       </c>
       <c r="F641" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G641" t="n">
         <v>23855008</v>
@@ -19676,7 +19676,7 @@
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>164611</v>
+        <v>164612</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -19689,24 +19689,24 @@
         </is>
       </c>
       <c r="D642" s="2" t="n">
-        <v>44471</v>
+        <v>44472</v>
       </c>
       <c r="E642" t="n">
-        <v>16244</v>
+        <v>16250</v>
       </c>
       <c r="F642" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G642" t="n">
         <v>23855008</v>
       </c>
       <c r="H642" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>164612</v>
+        <v>164613</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -19719,13 +19719,13 @@
         </is>
       </c>
       <c r="D643" s="2" t="n">
-        <v>44472</v>
+        <v>44473</v>
       </c>
       <c r="E643" t="n">
-        <v>16250</v>
+        <v>16255</v>
       </c>
       <c r="F643" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G643" t="n">
         <v>23855008</v>
@@ -19736,7 +19736,7 @@
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>164613</v>
+        <v>164614</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -19749,13 +19749,13 @@
         </is>
       </c>
       <c r="D644" s="2" t="n">
-        <v>44473</v>
+        <v>44474</v>
       </c>
       <c r="E644" t="n">
-        <v>16255</v>
+        <v>16262</v>
       </c>
       <c r="F644" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G644" t="n">
         <v>23855008</v>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>164614</v>
+        <v>164615</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -19779,13 +19779,13 @@
         </is>
       </c>
       <c r="D645" s="2" t="n">
-        <v>44474</v>
+        <v>44475</v>
       </c>
       <c r="E645" t="n">
-        <v>16262</v>
+        <v>16267</v>
       </c>
       <c r="F645" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G645" t="n">
         <v>23855008</v>
@@ -19796,7 +19796,7 @@
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>164615</v>
+        <v>164616</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -19809,13 +19809,13 @@
         </is>
       </c>
       <c r="D646" s="2" t="n">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="E646" t="n">
-        <v>16267</v>
+        <v>16271</v>
       </c>
       <c r="F646" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G646" t="n">
         <v>23855008</v>
@@ -19826,7 +19826,7 @@
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>164616</v>
+        <v>164617</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -19839,13 +19839,13 @@
         </is>
       </c>
       <c r="D647" s="2" t="n">
-        <v>44476</v>
+        <v>44477</v>
       </c>
       <c r="E647" t="n">
-        <v>16271</v>
+        <v>16283</v>
       </c>
       <c r="F647" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G647" t="n">
         <v>23855008</v>
@@ -19856,7 +19856,7 @@
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>164617</v>
+        <v>164618</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
@@ -19869,13 +19869,13 @@
         </is>
       </c>
       <c r="D648" s="2" t="n">
-        <v>44477</v>
+        <v>44478</v>
       </c>
       <c r="E648" t="n">
-        <v>16283</v>
+        <v>16287</v>
       </c>
       <c r="F648" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G648" t="n">
         <v>23855008</v>
@@ -19886,7 +19886,7 @@
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>164618</v>
+        <v>164619</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
@@ -19899,13 +19899,13 @@
         </is>
       </c>
       <c r="D649" s="2" t="n">
-        <v>44478</v>
+        <v>44479</v>
       </c>
       <c r="E649" t="n">
-        <v>16287</v>
+        <v>16294</v>
       </c>
       <c r="F649" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G649" t="n">
         <v>23855008</v>
@@ -19916,7 +19916,7 @@
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>164619</v>
+        <v>164620</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
@@ -19929,13 +19929,13 @@
         </is>
       </c>
       <c r="D650" s="2" t="n">
-        <v>44479</v>
+        <v>44480</v>
       </c>
       <c r="E650" t="n">
-        <v>16294</v>
+        <v>16305</v>
       </c>
       <c r="F650" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G650" t="n">
         <v>23855008</v>
@@ -19946,7 +19946,7 @@
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>164620</v>
+        <v>164621</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
@@ -19959,13 +19959,13 @@
         </is>
       </c>
       <c r="D651" s="2" t="n">
-        <v>44480</v>
+        <v>44481</v>
       </c>
       <c r="E651" t="n">
-        <v>16305</v>
+        <v>16309</v>
       </c>
       <c r="F651" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G651" t="n">
         <v>23855008</v>
@@ -19976,7 +19976,7 @@
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>164621</v>
+        <v>164622</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
@@ -19989,10 +19989,10 @@
         </is>
       </c>
       <c r="D652" s="2" t="n">
-        <v>44481</v>
+        <v>44482</v>
       </c>
       <c r="E652" t="n">
-        <v>16309</v>
+        <v>16313</v>
       </c>
       <c r="F652" t="n">
         <v>4</v>
@@ -20006,7 +20006,7 @@
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>164622</v>
+        <v>164623</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
@@ -20019,13 +20019,13 @@
         </is>
       </c>
       <c r="D653" s="2" t="n">
-        <v>44482</v>
+        <v>44483</v>
       </c>
       <c r="E653" t="n">
-        <v>16313</v>
+        <v>16321</v>
       </c>
       <c r="F653" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G653" t="n">
         <v>23855008</v>
@@ -20036,7 +20036,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>164623</v>
+        <v>164624</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
@@ -20049,13 +20049,13 @@
         </is>
       </c>
       <c r="D654" s="2" t="n">
-        <v>44483</v>
+        <v>44484</v>
       </c>
       <c r="E654" t="n">
-        <v>16321</v>
+        <v>16325</v>
       </c>
       <c r="F654" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G654" t="n">
         <v>23855008</v>
@@ -20066,7 +20066,7 @@
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>164624</v>
+        <v>164625</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
@@ -20079,13 +20079,13 @@
         </is>
       </c>
       <c r="D655" s="2" t="n">
-        <v>44484</v>
+        <v>44485</v>
       </c>
       <c r="E655" t="n">
-        <v>16325</v>
+        <v>16336</v>
       </c>
       <c r="F655" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G655" t="n">
         <v>23855008</v>
@@ -20096,7 +20096,7 @@
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>164625</v>
+        <v>164626</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
@@ -20109,13 +20109,13 @@
         </is>
       </c>
       <c r="D656" s="2" t="n">
-        <v>44485</v>
+        <v>44486</v>
       </c>
       <c r="E656" t="n">
-        <v>16336</v>
+        <v>16337</v>
       </c>
       <c r="F656" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G656" t="n">
         <v>23855008</v>
@@ -20126,7 +20126,7 @@
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>164626</v>
+        <v>164627</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
@@ -20139,13 +20139,13 @@
         </is>
       </c>
       <c r="D657" s="2" t="n">
-        <v>44486</v>
+        <v>44487</v>
       </c>
       <c r="E657" t="n">
         <v>16337</v>
       </c>
       <c r="F657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G657" t="n">
         <v>23855008</v>
@@ -20156,7 +20156,7 @@
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>164627</v>
+        <v>164628</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
@@ -20169,13 +20169,13 @@
         </is>
       </c>
       <c r="D658" s="2" t="n">
-        <v>44487</v>
+        <v>44488</v>
       </c>
       <c r="E658" t="n">
-        <v>16337</v>
+        <v>16343</v>
       </c>
       <c r="F658" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G658" t="n">
         <v>23855008</v>
@@ -20186,7 +20186,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>164628</v>
+        <v>164629</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
@@ -20199,13 +20199,13 @@
         </is>
       </c>
       <c r="D659" s="2" t="n">
-        <v>44488</v>
+        <v>44489</v>
       </c>
       <c r="E659" t="n">
-        <v>16343</v>
+        <v>16347</v>
       </c>
       <c r="F659" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G659" t="n">
         <v>23855008</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>164629</v>
+        <v>164630</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
@@ -20229,13 +20229,13 @@
         </is>
       </c>
       <c r="D660" s="2" t="n">
-        <v>44489</v>
+        <v>44490</v>
       </c>
       <c r="E660" t="n">
-        <v>16347</v>
+        <v>16349</v>
       </c>
       <c r="F660" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G660" t="n">
         <v>23855008</v>
@@ -20246,7 +20246,7 @@
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>164630</v>
+        <v>164631</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
@@ -20259,13 +20259,13 @@
         </is>
       </c>
       <c r="D661" s="2" t="n">
-        <v>44490</v>
+        <v>44491</v>
       </c>
       <c r="E661" t="n">
-        <v>16349</v>
+        <v>16357</v>
       </c>
       <c r="F661" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G661" t="n">
         <v>23855008</v>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>164631</v>
+        <v>164632</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
@@ -20289,13 +20289,13 @@
         </is>
       </c>
       <c r="D662" s="2" t="n">
-        <v>44491</v>
+        <v>44492</v>
       </c>
       <c r="E662" t="n">
-        <v>16357</v>
+        <v>16364</v>
       </c>
       <c r="F662" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G662" t="n">
         <v>23855008</v>
@@ -20306,7 +20306,7 @@
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>164632</v>
+        <v>164633</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
@@ -20319,13 +20319,13 @@
         </is>
       </c>
       <c r="D663" s="2" t="n">
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="E663" t="n">
-        <v>16364</v>
+        <v>16368</v>
       </c>
       <c r="F663" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G663" t="n">
         <v>23855008</v>
@@ -20336,7 +20336,7 @@
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>164633</v>
+        <v>164634</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
@@ -20349,13 +20349,13 @@
         </is>
       </c>
       <c r="D664" s="2" t="n">
-        <v>44493</v>
+        <v>44494</v>
       </c>
       <c r="E664" t="n">
-        <v>16368</v>
+        <v>16376</v>
       </c>
       <c r="F664" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G664" t="n">
         <v>23855008</v>
@@ -20366,7 +20366,7 @@
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>164634</v>
+        <v>164635</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
@@ -20379,13 +20379,13 @@
         </is>
       </c>
       <c r="D665" s="2" t="n">
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="E665" t="n">
-        <v>16376</v>
+        <v>16380</v>
       </c>
       <c r="F665" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G665" t="n">
         <v>23855008</v>
@@ -20396,7 +20396,7 @@
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>164635</v>
+        <v>164636</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
@@ -20409,13 +20409,13 @@
         </is>
       </c>
       <c r="D666" s="2" t="n">
-        <v>44495</v>
+        <v>44496</v>
       </c>
       <c r="E666" t="n">
-        <v>16380</v>
+        <v>16388</v>
       </c>
       <c r="F666" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G666" t="n">
         <v>23855008</v>
@@ -20426,7 +20426,7 @@
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>164636</v>
+        <v>164637</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
@@ -20439,24 +20439,24 @@
         </is>
       </c>
       <c r="D667" s="2" t="n">
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="E667" t="n">
-        <v>16388</v>
+        <v>16394</v>
       </c>
       <c r="F667" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G667" t="n">
         <v>23855008</v>
       </c>
       <c r="H667" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>164637</v>
+        <v>164638</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
@@ -20469,13 +20469,13 @@
         </is>
       </c>
       <c r="D668" s="2" t="n">
-        <v>44497</v>
+        <v>44498</v>
       </c>
       <c r="E668" t="n">
-        <v>16394</v>
+        <v>16399</v>
       </c>
       <c r="F668" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G668" t="n">
         <v>23855008</v>
@@ -20486,7 +20486,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>164638</v>
+        <v>164639</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
@@ -20499,13 +20499,13 @@
         </is>
       </c>
       <c r="D669" s="2" t="n">
-        <v>44498</v>
+        <v>44499</v>
       </c>
       <c r="E669" t="n">
-        <v>16399</v>
+        <v>16406</v>
       </c>
       <c r="F669" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G669" t="n">
         <v>23855008</v>
@@ -20516,7 +20516,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>164639</v>
+        <v>164640</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
@@ -20529,13 +20529,13 @@
         </is>
       </c>
       <c r="D670" s="2" t="n">
-        <v>44499</v>
+        <v>44500</v>
       </c>
       <c r="E670" t="n">
-        <v>16406</v>
+        <v>16412</v>
       </c>
       <c r="F670" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G670" t="n">
         <v>23855008</v>
@@ -20546,7 +20546,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>164640</v>
+        <v>164641</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
@@ -20559,13 +20559,13 @@
         </is>
       </c>
       <c r="D671" s="2" t="n">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="E671" t="n">
-        <v>16412</v>
+        <v>16417</v>
       </c>
       <c r="F671" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G671" t="n">
         <v>23855008</v>
@@ -20576,7 +20576,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>164641</v>
+        <v>164642</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
@@ -20589,13 +20589,13 @@
         </is>
       </c>
       <c r="D672" s="2" t="n">
-        <v>44501</v>
+        <v>44502</v>
       </c>
       <c r="E672" t="n">
-        <v>16417</v>
+        <v>16421</v>
       </c>
       <c r="F672" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G672" t="n">
         <v>23855008</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>164642</v>
+        <v>164643</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
@@ -20619,13 +20619,13 @@
         </is>
       </c>
       <c r="D673" s="2" t="n">
-        <v>44502</v>
+        <v>44503</v>
       </c>
       <c r="E673" t="n">
-        <v>16421</v>
+        <v>16428</v>
       </c>
       <c r="F673" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G673" t="n">
         <v>23855008</v>
@@ -20636,7 +20636,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>164643</v>
+        <v>164644</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
@@ -20649,13 +20649,13 @@
         </is>
       </c>
       <c r="D674" s="2" t="n">
-        <v>44503</v>
+        <v>44504</v>
       </c>
       <c r="E674" t="n">
-        <v>16428</v>
+        <v>16430</v>
       </c>
       <c r="F674" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G674" t="n">
         <v>23855008</v>
@@ -20666,7 +20666,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>164644</v>
+        <v>164645</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
@@ -20679,13 +20679,13 @@
         </is>
       </c>
       <c r="D675" s="2" t="n">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="E675" t="n">
-        <v>16430</v>
+        <v>16437</v>
       </c>
       <c r="F675" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G675" t="n">
         <v>23855008</v>
@@ -20696,7 +20696,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>164645</v>
+        <v>164646</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
@@ -20709,13 +20709,13 @@
         </is>
       </c>
       <c r="D676" s="2" t="n">
-        <v>44505</v>
+        <v>44506</v>
       </c>
       <c r="E676" t="n">
-        <v>16437</v>
+        <v>16438</v>
       </c>
       <c r="F676" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G676" t="n">
         <v>23855008</v>
@@ -20726,7 +20726,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>164646</v>
+        <v>164647</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
@@ -20739,13 +20739,13 @@
         </is>
       </c>
       <c r="D677" s="2" t="n">
-        <v>44506</v>
+        <v>44507</v>
       </c>
       <c r="E677" t="n">
-        <v>16438</v>
+        <v>16442</v>
       </c>
       <c r="F677" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G677" t="n">
         <v>23855008</v>
@@ -20756,7 +20756,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>164647</v>
+        <v>164648</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
@@ -20769,13 +20769,13 @@
         </is>
       </c>
       <c r="D678" s="2" t="n">
-        <v>44507</v>
+        <v>44508</v>
       </c>
       <c r="E678" t="n">
-        <v>16442</v>
+        <v>16445</v>
       </c>
       <c r="F678" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G678" t="n">
         <v>23855008</v>
@@ -20786,7 +20786,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>164648</v>
+        <v>164649</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
@@ -20799,13 +20799,13 @@
         </is>
       </c>
       <c r="D679" s="2" t="n">
-        <v>44508</v>
+        <v>44509</v>
       </c>
       <c r="E679" t="n">
-        <v>16445</v>
+        <v>16451</v>
       </c>
       <c r="F679" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G679" t="n">
         <v>23855008</v>
@@ -20816,7 +20816,7 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>164649</v>
+        <v>164650</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
@@ -20829,13 +20829,13 @@
         </is>
       </c>
       <c r="D680" s="2" t="n">
-        <v>44509</v>
+        <v>44510</v>
       </c>
       <c r="E680" t="n">
-        <v>16451</v>
+        <v>16456</v>
       </c>
       <c r="F680" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G680" t="n">
         <v>23855008</v>
@@ -20846,7 +20846,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>164650</v>
+        <v>164651</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
@@ -20859,13 +20859,13 @@
         </is>
       </c>
       <c r="D681" s="2" t="n">
-        <v>44510</v>
+        <v>44511</v>
       </c>
       <c r="E681" t="n">
-        <v>16456</v>
+        <v>16465</v>
       </c>
       <c r="F681" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G681" t="n">
         <v>23855008</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>164651</v>
+        <v>164652</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
@@ -20889,13 +20889,13 @@
         </is>
       </c>
       <c r="D682" s="2" t="n">
-        <v>44511</v>
+        <v>44512</v>
       </c>
       <c r="E682" t="n">
-        <v>16465</v>
+        <v>16475</v>
       </c>
       <c r="F682" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G682" t="n">
         <v>23855008</v>
@@ -20906,7 +20906,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>164652</v>
+        <v>164653</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
@@ -20919,13 +20919,13 @@
         </is>
       </c>
       <c r="D683" s="2" t="n">
-        <v>44512</v>
+        <v>44513</v>
       </c>
       <c r="E683" t="n">
-        <v>16475</v>
+        <v>16479</v>
       </c>
       <c r="F683" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G683" t="n">
         <v>23855008</v>
@@ -20936,7 +20936,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>164653</v>
+        <v>164654</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
@@ -20949,13 +20949,13 @@
         </is>
       </c>
       <c r="D684" s="2" t="n">
-        <v>44513</v>
+        <v>44514</v>
       </c>
       <c r="E684" t="n">
-        <v>16479</v>
+        <v>16487</v>
       </c>
       <c r="F684" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G684" t="n">
         <v>23855008</v>
@@ -20966,7 +20966,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>164654</v>
+        <v>164655</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
@@ -20979,13 +20979,13 @@
         </is>
       </c>
       <c r="D685" s="2" t="n">
-        <v>44514</v>
+        <v>44515</v>
       </c>
       <c r="E685" t="n">
-        <v>16487</v>
+        <v>16496</v>
       </c>
       <c r="F685" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G685" t="n">
         <v>23855008</v>
@@ -20996,7 +20996,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>164655</v>
+        <v>164656</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
@@ -21009,13 +21009,13 @@
         </is>
       </c>
       <c r="D686" s="2" t="n">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="E686" t="n">
-        <v>16496</v>
+        <v>16498</v>
       </c>
       <c r="F686" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G686" t="n">
         <v>23855008</v>
@@ -21026,7 +21026,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>164656</v>
+        <v>164657</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
@@ -21039,13 +21039,13 @@
         </is>
       </c>
       <c r="D687" s="2" t="n">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="E687" t="n">
-        <v>16498</v>
+        <v>16503</v>
       </c>
       <c r="F687" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G687" t="n">
         <v>23855008</v>
@@ -21056,7 +21056,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>164657</v>
+        <v>164658</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
@@ -21069,13 +21069,13 @@
         </is>
       </c>
       <c r="D688" s="2" t="n">
-        <v>44517</v>
+        <v>44518</v>
       </c>
       <c r="E688" t="n">
-        <v>16503</v>
+        <v>16506</v>
       </c>
       <c r="F688" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G688" t="n">
         <v>23855008</v>
@@ -21086,7 +21086,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>164658</v>
+        <v>164659</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
@@ -21099,13 +21099,13 @@
         </is>
       </c>
       <c r="D689" s="2" t="n">
-        <v>44518</v>
+        <v>44519</v>
       </c>
       <c r="E689" t="n">
-        <v>16506</v>
+        <v>16516</v>
       </c>
       <c r="F689" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G689" t="n">
         <v>23855008</v>
@@ -21116,7 +21116,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>164659</v>
+        <v>164660</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
@@ -21129,13 +21129,13 @@
         </is>
       </c>
       <c r="D690" s="2" t="n">
-        <v>44519</v>
+        <v>44520</v>
       </c>
       <c r="E690" t="n">
-        <v>16516</v>
+        <v>16520</v>
       </c>
       <c r="F690" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G690" t="n">
         <v>23855008</v>
@@ -21146,7 +21146,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>164660</v>
+        <v>164661</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
@@ -21159,13 +21159,13 @@
         </is>
       </c>
       <c r="D691" s="2" t="n">
-        <v>44520</v>
+        <v>44521</v>
       </c>
       <c r="E691" t="n">
-        <v>16520</v>
+        <v>16529</v>
       </c>
       <c r="F691" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G691" t="n">
         <v>23855008</v>
@@ -21176,7 +21176,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>164661</v>
+        <v>164662</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
@@ -21189,13 +21189,13 @@
         </is>
       </c>
       <c r="D692" s="2" t="n">
-        <v>44521</v>
+        <v>44522</v>
       </c>
       <c r="E692" t="n">
-        <v>16529</v>
+        <v>16532</v>
       </c>
       <c r="F692" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G692" t="n">
         <v>23855008</v>
@@ -21206,7 +21206,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>164662</v>
+        <v>164663</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
@@ -21219,24 +21219,24 @@
         </is>
       </c>
       <c r="D693" s="2" t="n">
-        <v>44522</v>
+        <v>44523</v>
       </c>
       <c r="E693" t="n">
-        <v>16532</v>
+        <v>16539</v>
       </c>
       <c r="F693" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G693" t="n">
         <v>23855008</v>
       </c>
       <c r="H693" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>164663</v>
+        <v>164664</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
@@ -21249,13 +21249,13 @@
         </is>
       </c>
       <c r="D694" s="2" t="n">
-        <v>44523</v>
+        <v>44524</v>
       </c>
       <c r="E694" t="n">
-        <v>16539</v>
+        <v>16544</v>
       </c>
       <c r="F694" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G694" t="n">
         <v>23855008</v>
@@ -21266,7 +21266,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>164664</v>
+        <v>164665</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
@@ -21279,13 +21279,13 @@
         </is>
       </c>
       <c r="D695" s="2" t="n">
-        <v>44524</v>
+        <v>44525</v>
       </c>
       <c r="E695" t="n">
-        <v>16544</v>
+        <v>16554</v>
       </c>
       <c r="F695" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G695" t="n">
         <v>23855008</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>164665</v>
+        <v>164666</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
@@ -21309,13 +21309,13 @@
         </is>
       </c>
       <c r="D696" s="2" t="n">
-        <v>44525</v>
+        <v>44526</v>
       </c>
       <c r="E696" t="n">
-        <v>16554</v>
+        <v>16566</v>
       </c>
       <c r="F696" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G696" t="n">
         <v>23855008</v>
@@ -21326,7 +21326,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>164666</v>
+        <v>164667</v>
       </c>
       <c r="B697" t="inlineStr">
         <is>
@@ -21339,10 +21339,10 @@
         </is>
       </c>
       <c r="D697" s="2" t="n">
-        <v>44526</v>
+        <v>44527</v>
       </c>
       <c r="E697" t="n">
-        <v>16566</v>
+        <v>16578</v>
       </c>
       <c r="F697" t="n">
         <v>12</v>
@@ -21356,7 +21356,7 @@
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>164667</v>
+        <v>164668</v>
       </c>
       <c r="B698" t="inlineStr">
         <is>
@@ -21369,13 +21369,13 @@
         </is>
       </c>
       <c r="D698" s="2" t="n">
-        <v>44527</v>
+        <v>44528</v>
       </c>
       <c r="E698" t="n">
-        <v>16578</v>
+        <v>16588</v>
       </c>
       <c r="F698" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G698" t="n">
         <v>23855008</v>
@@ -21386,7 +21386,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>164668</v>
+        <v>164669</v>
       </c>
       <c r="B699" t="inlineStr">
         <is>
@@ -21399,13 +21399,13 @@
         </is>
       </c>
       <c r="D699" s="2" t="n">
-        <v>44528</v>
+        <v>44529</v>
       </c>
       <c r="E699" t="n">
-        <v>16588</v>
+        <v>16596</v>
       </c>
       <c r="F699" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G699" t="n">
         <v>23855008</v>
@@ -21416,7 +21416,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>164669</v>
+        <v>164670</v>
       </c>
       <c r="B700" t="inlineStr">
         <is>
@@ -21429,13 +21429,13 @@
         </is>
       </c>
       <c r="D700" s="2" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="E700" t="n">
-        <v>16596</v>
+        <v>16601</v>
       </c>
       <c r="F700" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G700" t="n">
         <v>23855008</v>
@@ -21446,7 +21446,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>164670</v>
+        <v>164671</v>
       </c>
       <c r="B701" t="inlineStr">
         <is>
@@ -21459,13 +21459,13 @@
         </is>
       </c>
       <c r="D701" s="2" t="n">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="E701" t="n">
-        <v>16601</v>
+        <v>16609</v>
       </c>
       <c r="F701" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G701" t="n">
         <v>23855008</v>
@@ -21476,7 +21476,7 @@
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>164671</v>
+        <v>164672</v>
       </c>
       <c r="B702" t="inlineStr">
         <is>
@@ -21489,13 +21489,13 @@
         </is>
       </c>
       <c r="D702" s="2" t="n">
-        <v>44531</v>
+        <v>44532</v>
       </c>
       <c r="E702" t="n">
-        <v>16609</v>
+        <v>16626</v>
       </c>
       <c r="F702" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G702" t="n">
         <v>23855008</v>
@@ -21506,7 +21506,7 @@
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>164672</v>
+        <v>164673</v>
       </c>
       <c r="B703" t="inlineStr">
         <is>
@@ -21519,13 +21519,13 @@
         </is>
       </c>
       <c r="D703" s="2" t="n">
-        <v>44532</v>
+        <v>44533</v>
       </c>
       <c r="E703" t="n">
-        <v>16626</v>
+        <v>16637</v>
       </c>
       <c r="F703" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G703" t="n">
         <v>23855008</v>
@@ -21536,7 +21536,7 @@
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>164673</v>
+        <v>164674</v>
       </c>
       <c r="B704" t="inlineStr">
         <is>
@@ -21549,10 +21549,10 @@
         </is>
       </c>
       <c r="D704" s="2" t="n">
-        <v>44533</v>
+        <v>44534</v>
       </c>
       <c r="E704" t="n">
-        <v>16637</v>
+        <v>16648</v>
       </c>
       <c r="F704" t="n">
         <v>11</v>
@@ -21566,7 +21566,7 @@
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>164674</v>
+        <v>164675</v>
       </c>
       <c r="B705" t="inlineStr">
         <is>
@@ -21579,13 +21579,13 @@
         </is>
       </c>
       <c r="D705" s="2" t="n">
-        <v>44534</v>
+        <v>44535</v>
       </c>
       <c r="E705" t="n">
-        <v>16648</v>
+        <v>16652</v>
       </c>
       <c r="F705" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G705" t="n">
         <v>23855008</v>
@@ -21596,7 +21596,7 @@
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>164675</v>
+        <v>164676</v>
       </c>
       <c r="B706" t="inlineStr">
         <is>
@@ -21609,13 +21609,13 @@
         </is>
       </c>
       <c r="D706" s="2" t="n">
-        <v>44535</v>
+        <v>44536</v>
       </c>
       <c r="E706" t="n">
-        <v>16652</v>
+        <v>16662</v>
       </c>
       <c r="F706" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G706" t="n">
         <v>23855008</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>164676</v>
+        <v>164677</v>
       </c>
       <c r="B707" t="inlineStr">
         <is>
@@ -21639,13 +21639,13 @@
         </is>
       </c>
       <c r="D707" s="2" t="n">
-        <v>44536</v>
+        <v>44537</v>
       </c>
       <c r="E707" t="n">
-        <v>16662</v>
+        <v>16683</v>
       </c>
       <c r="F707" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G707" t="n">
         <v>23855008</v>
@@ -21656,7 +21656,7 @@
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>164677</v>
+        <v>164678</v>
       </c>
       <c r="B708" t="inlineStr">
         <is>
@@ -21669,24 +21669,24 @@
         </is>
       </c>
       <c r="D708" s="2" t="n">
-        <v>44537</v>
+        <v>44538</v>
       </c>
       <c r="E708" t="n">
-        <v>16683</v>
+        <v>16688</v>
       </c>
       <c r="F708" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G708" t="n">
         <v>23855008</v>
       </c>
       <c r="H708" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>164678</v>
+        <v>164679</v>
       </c>
       <c r="B709" t="inlineStr">
         <is>
@@ -21699,13 +21699,13 @@
         </is>
       </c>
       <c r="D709" s="2" t="n">
-        <v>44538</v>
+        <v>44539</v>
       </c>
       <c r="E709" t="n">
-        <v>16688</v>
+        <v>16704</v>
       </c>
       <c r="F709" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G709" t="n">
         <v>23855008</v>
@@ -21716,7 +21716,7 @@
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>164679</v>
+        <v>164680</v>
       </c>
       <c r="B710" t="inlineStr">
         <is>
@@ -21729,13 +21729,13 @@
         </is>
       </c>
       <c r="D710" s="2" t="n">
-        <v>44539</v>
+        <v>44540</v>
       </c>
       <c r="E710" t="n">
-        <v>16704</v>
+        <v>16721</v>
       </c>
       <c r="F710" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G710" t="n">
         <v>23855008</v>
@@ -21746,7 +21746,7 @@
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>164680</v>
+        <v>164681</v>
       </c>
       <c r="B711" t="inlineStr">
         <is>
@@ -21759,13 +21759,13 @@
         </is>
       </c>
       <c r="D711" s="2" t="n">
-        <v>44540</v>
+        <v>44541</v>
       </c>
       <c r="E711" t="n">
-        <v>16721</v>
+        <v>16731</v>
       </c>
       <c r="F711" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G711" t="n">
         <v>23855008</v>
@@ -21776,7 +21776,7 @@
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>164681</v>
+        <v>164682</v>
       </c>
       <c r="B712" t="inlineStr">
         <is>
@@ -21789,13 +21789,13 @@
         </is>
       </c>
       <c r="D712" s="2" t="n">
-        <v>44541</v>
+        <v>44542</v>
       </c>
       <c r="E712" t="n">
-        <v>16731</v>
+        <v>16737</v>
       </c>
       <c r="F712" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G712" t="n">
         <v>23855008</v>
@@ -21806,7 +21806,7 @@
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>164682</v>
+        <v>164683</v>
       </c>
       <c r="B713" t="inlineStr">
         <is>
@@ -21819,13 +21819,13 @@
         </is>
       </c>
       <c r="D713" s="2" t="n">
-        <v>44542</v>
+        <v>44543</v>
       </c>
       <c r="E713" t="n">
-        <v>16737</v>
+        <v>16742</v>
       </c>
       <c r="F713" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G713" t="n">
         <v>23855008</v>
@@ -21836,7 +21836,7 @@
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>164683</v>
+        <v>164684</v>
       </c>
       <c r="B714" t="inlineStr">
         <is>
@@ -21849,13 +21849,13 @@
         </is>
       </c>
       <c r="D714" s="2" t="n">
-        <v>44543</v>
+        <v>44544</v>
       </c>
       <c r="E714" t="n">
-        <v>16742</v>
+        <v>16752</v>
       </c>
       <c r="F714" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G714" t="n">
         <v>23855008</v>
@@ -21866,7 +21866,7 @@
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>164684</v>
+        <v>164685</v>
       </c>
       <c r="B715" t="inlineStr">
         <is>
@@ -21879,13 +21879,13 @@
         </is>
       </c>
       <c r="D715" s="2" t="n">
-        <v>44544</v>
+        <v>44545</v>
       </c>
       <c r="E715" t="n">
-        <v>16752</v>
+        <v>16759</v>
       </c>
       <c r="F715" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G715" t="n">
         <v>23855008</v>
@@ -21896,7 +21896,7 @@
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>164685</v>
+        <v>164686</v>
       </c>
       <c r="B716" t="inlineStr">
         <is>
@@ -21909,13 +21909,13 @@
         </is>
       </c>
       <c r="D716" s="2" t="n">
-        <v>44545</v>
+        <v>44546</v>
       </c>
       <c r="E716" t="n">
-        <v>16759</v>
+        <v>16771</v>
       </c>
       <c r="F716" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G716" t="n">
         <v>23855008</v>
@@ -21926,7 +21926,7 @@
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
-        <v>164686</v>
+        <v>164687</v>
       </c>
       <c r="B717" t="inlineStr">
         <is>
@@ -21939,13 +21939,13 @@
         </is>
       </c>
       <c r="D717" s="2" t="n">
-        <v>44546</v>
+        <v>44547</v>
       </c>
       <c r="E717" t="n">
-        <v>16771</v>
+        <v>16786</v>
       </c>
       <c r="F717" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G717" t="n">
         <v>23855008</v>
@@ -21956,7 +21956,7 @@
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
-        <v>164687</v>
+        <v>164688</v>
       </c>
       <c r="B718" t="inlineStr">
         <is>
@@ -21969,13 +21969,13 @@
         </is>
       </c>
       <c r="D718" s="2" t="n">
-        <v>44547</v>
+        <v>44548</v>
       </c>
       <c r="E718" t="n">
-        <v>16786</v>
+        <v>16799</v>
       </c>
       <c r="F718" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G718" t="n">
         <v>23855008</v>
@@ -21986,7 +21986,7 @@
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
-        <v>164688</v>
+        <v>164689</v>
       </c>
       <c r="B719" t="inlineStr">
         <is>
@@ -21999,13 +21999,13 @@
         </is>
       </c>
       <c r="D719" s="2" t="n">
-        <v>44548</v>
+        <v>44549</v>
       </c>
       <c r="E719" t="n">
-        <v>16799</v>
+        <v>16805</v>
       </c>
       <c r="F719" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G719" t="n">
         <v>23855008</v>
@@ -22016,7 +22016,7 @@
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
-        <v>164689</v>
+        <v>164690</v>
       </c>
       <c r="B720" t="inlineStr">
         <is>
@@ -22029,13 +22029,13 @@
         </is>
       </c>
       <c r="D720" s="2" t="n">
-        <v>44549</v>
+        <v>44550</v>
       </c>
       <c r="E720" t="n">
-        <v>16805</v>
+        <v>16816</v>
       </c>
       <c r="F720" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G720" t="n">
         <v>23855008</v>
@@ -22046,7 +22046,7 @@
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
-        <v>164690</v>
+        <v>164691</v>
       </c>
       <c r="B721" t="inlineStr">
         <is>
@@ -22059,13 +22059,13 @@
         </is>
       </c>
       <c r="D721" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="E721" t="n">
-        <v>16816</v>
+        <v>16826</v>
       </c>
       <c r="F721" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G721" t="n">
         <v>23855008</v>
@@ -22076,7 +22076,7 @@
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
-        <v>164691</v>
+        <v>164692</v>
       </c>
       <c r="B722" t="inlineStr">
         <is>
@@ -22089,24 +22089,24 @@
         </is>
       </c>
       <c r="D722" s="2" t="n">
-        <v>44551</v>
+        <v>44552</v>
       </c>
       <c r="E722" t="n">
-        <v>16826</v>
+        <v>16840</v>
       </c>
       <c r="F722" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G722" t="n">
         <v>23855008</v>
       </c>
       <c r="H722" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
-        <v>164692</v>
+        <v>164693</v>
       </c>
       <c r="B723" t="inlineStr">
         <is>
@@ -22119,13 +22119,13 @@
         </is>
       </c>
       <c r="D723" s="2" t="n">
-        <v>44552</v>
+        <v>44553</v>
       </c>
       <c r="E723" t="n">
-        <v>16840</v>
+        <v>16853</v>
       </c>
       <c r="F723" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G723" t="n">
         <v>23855008</v>
@@ -22136,7 +22136,7 @@
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
-        <v>164693</v>
+        <v>164694</v>
       </c>
       <c r="B724" t="inlineStr">
         <is>
@@ -22149,13 +22149,13 @@
         </is>
       </c>
       <c r="D724" s="2" t="n">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="E724" t="n">
-        <v>16853</v>
+        <v>16873</v>
       </c>
       <c r="F724" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G724" t="n">
         <v>23855008</v>
@@ -22166,7 +22166,7 @@
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
-        <v>164694</v>
+        <v>164695</v>
       </c>
       <c r="B725" t="inlineStr">
         <is>
@@ -22179,13 +22179,13 @@
         </is>
       </c>
       <c r="D725" s="2" t="n">
-        <v>44554</v>
+        <v>44555</v>
       </c>
       <c r="E725" t="n">
-        <v>16873</v>
+        <v>16891</v>
       </c>
       <c r="F725" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G725" t="n">
         <v>23855008</v>
@@ -22196,7 +22196,7 @@
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
-        <v>164695</v>
+        <v>164696</v>
       </c>
       <c r="B726" t="inlineStr">
         <is>
@@ -22209,13 +22209,13 @@
         </is>
       </c>
       <c r="D726" s="2" t="n">
-        <v>44555</v>
+        <v>44556</v>
       </c>
       <c r="E726" t="n">
-        <v>16891</v>
+        <v>16915</v>
       </c>
       <c r="F726" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G726" t="n">
         <v>23855008</v>
@@ -22226,7 +22226,7 @@
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
-        <v>164696</v>
+        <v>164697</v>
       </c>
       <c r="B727" t="inlineStr">
         <is>
@@ -22239,13 +22239,13 @@
         </is>
       </c>
       <c r="D727" s="2" t="n">
-        <v>44556</v>
+        <v>44557</v>
       </c>
       <c r="E727" t="n">
-        <v>16915</v>
+        <v>16931</v>
       </c>
       <c r="F727" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G727" t="n">
         <v>23855008</v>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
-        <v>164697</v>
+        <v>164698</v>
       </c>
       <c r="B728" t="inlineStr">
         <is>
@@ -22269,13 +22269,13 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="E728" t="n">
-        <v>16931</v>
+        <v>16950</v>
       </c>
       <c r="F728" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G728" t="n">
         <v>23855008</v>
@@ -22286,7 +22286,7 @@
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
-        <v>164698</v>
+        <v>164699</v>
       </c>
       <c r="B729" t="inlineStr">
         <is>
@@ -22299,13 +22299,13 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="E729" t="n">
-        <v>16950</v>
+        <v>16964</v>
       </c>
       <c r="F729" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G729" t="n">
         <v>23855008</v>
@@ -22316,7 +22316,7 @@
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
-        <v>164699</v>
+        <v>164700</v>
       </c>
       <c r="B730" t="inlineStr">
         <is>
@@ -22329,24 +22329,24 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44559</v>
+        <v>44560</v>
       </c>
       <c r="E730" t="n">
-        <v>16964</v>
+        <v>16988</v>
       </c>
       <c r="F730" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G730" t="n">
         <v>23855008</v>
       </c>
       <c r="H730" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
-        <v>164700</v>
+        <v>164701</v>
       </c>
       <c r="B731" t="inlineStr">
         <is>
@@ -22359,78 +22359,18 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="E731" t="n">
-        <v>16988</v>
+        <v>17029</v>
       </c>
       <c r="F731" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G731" t="n">
         <v>23855008</v>
       </c>
       <c r="H731" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>164701</v>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>亞洲</t>
-        </is>
-      </c>
-      <c r="C732" t="inlineStr">
-        <is>
-          <t>台灣</t>
-        </is>
-      </c>
-      <c r="D732" s="2" t="n">
-        <v>44561</v>
-      </c>
-      <c r="E732" t="n">
-        <v>17029</v>
-      </c>
-      <c r="F732" t="n">
-        <v>41</v>
-      </c>
-      <c r="G732" t="n">
-        <v>23855008</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>164702</v>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>亞洲</t>
-        </is>
-      </c>
-      <c r="C733" t="inlineStr">
-        <is>
-          <t>台灣</t>
-        </is>
-      </c>
-      <c r="D733" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="E733" t="n">
-        <v>17050</v>
-      </c>
-      <c r="F733" t="n">
-        <v>21</v>
-      </c>
-      <c r="G733" t="n">
-        <v>23855008</v>
-      </c>
-      <c r="H733" t="n">
         <v>0.21</v>
       </c>
     </row>
